--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -31,16 +31,16 @@
     <t xml:space="preserve">Question</t>
   </si>
   <si>
-    <t xml:space="preserve">Choice One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice Four</t>
+    <t xml:space="preserve">Choice A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice D</t>
   </si>
   <si>
     <t xml:space="preserve">Correct Choice</t>
@@ -260,6 +260,51 @@
   </si>
   <si>
     <t xml:space="preserve">complicated cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort is a simple and the slowest sorting algorithm.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort is a simple and efficient sorting algorithm useful for small lists and mostly sorted list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by finding the smallest or highest element (most probably desired element) from the unsorted list and swaps with the first element in the sorted list and then finds the next smallest element from the unsorted list and swap with the second element in the sorted list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by splitting the unsorted array into n sub array recursively until each sub array has 1 element. In general an array with one element is considered to be sorted. Consequently it merges each sub array to generate a final sorted array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by selecting elements from unsorted array named as a pivot and split the array into two parts called sub arrays and reconstruct the former part with the elements smaller than the pivot and the latter with elements larger than the pivot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort is the fastest general purpose internal sorting algorithm on the average among other sophisticated algorithms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by inserting each element into its appropriate position in the final sorted list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by comparing each element in the list with its neighboring elements and swapping them if they are in undesirable order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort is another simple sorting method that works better than bubble sort and worse than insertion sort.</t>
   </si>
 </sst>
 </file>
@@ -269,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +336,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,12 +386,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,223 +416,226 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -585,28 +643,28 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -614,28 +672,28 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -643,31 +701,31 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -675,28 +733,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -704,28 +762,28 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -733,28 +791,28 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -762,28 +820,28 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -791,28 +849,28 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -820,31 +878,292 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="104">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -305,6 +305,33 @@
   </si>
   <si>
     <t xml:space="preserve">______ sort is another simple sorting method that works better than bubble sort and worse than insertion sort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort is based on the heap data structure and in-place sorting algorithm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heap Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counting Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radix Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by building a heap from the input array and then removing the maximum element from the heap and placing it at the end of the final sorted array i.e n − 1th position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort is a linear sorting algorithm and works without comparing any elements unlike other sorting methods such as insertion sort and quick sort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by sorting data elements with keys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort is an integer sorting algorithm with linear running time complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ sort works by counting the number of occurrences of each element in the input usually called as keys and store this information into another array called C. </t>
   </si>
 </sst>
 </file>
@@ -314,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -336,12 +363,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,16 +407,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,13 +433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
   </cols>
@@ -1116,7 +1133,7 @@
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1164,6 +1181,177 @@
         <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="135">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -332,6 +332,101 @@
   </si>
   <si>
     <t xml:space="preserve">______ sort works by counting the number of occurrences of each element in the input usually called as keys and store this information into another array called C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ search sequentially checks each element of the list until a match is found or the whole list has been searched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In ______ search, we search an element or value in a given array by traversing the array from the starting, till the desired element or value is found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______search is the simplest search algorithm and often called sequential search​.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ search is also known as half-interval search.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ search is also known as logarithmic search.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ search is also known as binary chop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ search is a search algorithm that finds the position of a target value within a sorted array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ search is an efficient algorithm for finding an item from a sorted list of items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ search works by repeatedly dividing in half the portion of the list that could contain the item, until you've narrowed down the possible locations to just one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear search has a time complexity of ______.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(logn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(!n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(nlogn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary search has a time complexity of ______.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective of ______ searching is to find the location of a specific text pattern within a larger body of text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are a number of ______ searching algorithms in existence today, but the two examples are Brute Force and Rabin-Karp.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ______ algorithm compares the pattern to the text, one character at a time, until unmatching characters are found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin-Karp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brute Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ______ string searching algorithm uses a hash function to speed up the search.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyer–Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knuth–Morris–Pratt</t>
   </si>
 </sst>
 </file>
@@ -341,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -363,6 +458,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,13 +508,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -433,13 +542,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
   </cols>
@@ -1352,6 +1461,423 @@
         <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="260">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -427,16 +427,450 @@
   </si>
   <si>
     <t xml:space="preserve">Knuth–Morris–Pratt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithmic Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the Huffman Code, how many bits would you need to encode the word ‘Pneumonoultramicroscopicsilicovolcanokoniosis’?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">654 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163 bits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">871 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppose you are trying to infiltrate as many computers as possible but you can only access one computer at a time. How fast you retrieve information from it depends on the computer’s start up processing time and finishing time. In sequence, which computers will you infiltrate to? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer 1 – Computer 3  – Computer 5 – Computer 2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer 4 – Computer 6 – Computer 7 – Computer 2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer 4  – Computer 1 – Computer 6 – computer 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Computer 1 – Computer 4 - Computer  8  – Computer 6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You come across a storage room filled with the latest high-tech gadgets and gizmos worth a lot of money. You’re tempted to take every single one but you only have one knapsack that could only fit 7 kilos of items so you take the items with the most value. How much more money could you have gained if you took a dynamic approach in selecting the items? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (this is the optimal solution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before you embarked on your journey, you bought the following items; gloves, knapsack, mask, a new pair of shoes, fake mustache, a beanie, &amp; some tools. The change given to you by the cashier was Php 230. Since it’s rush hour some of their coins and bills ran out, leaving only a set of pesos   {1, 10, 25, 50} to exchange with you. Using the greedy algorithm, what is the fewest number of peso bills/coins the cashier could have given you? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 50, 50, 50,50, 25,1,1,1,1,1}   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 50, 50, 50,50, 10,10,10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 50, 50, 50,25, 1,1,1,1,1,25,25}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{50, 50, 25, 25, 25, 25, 10, 10, 10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are assigned to be the leader of the hacking operation. To execute the task effectively you split your members into pairs. However, most of your members agrees to be paired with a partner according to their preference. What one stable match could you think of? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{(M1,M6), (M2,M5), (M3,M8), (M4,M7)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{(M1,M6), (M2,M7), (M3,M5), (M4,M8)} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{(M1,M8), (M2,M5), (M3,M6), (M4,M7)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{(M1,M7), (M2,M8), (M3,M5), (M4,M6)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When does a greedy algorithm produce an optimal solution to a problem? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a global optimal solution can be found by choosing the optimal solution at each step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it finds a global optimal solution by recursively trying to build a solution incrementally, one piece at a time, recursively evaluating every alternative and choosing the best one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it evaluates each and every possibility until it finds the global optimal solution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If an optimal solution can be created for a problem by constructing optimal solutions for its sub problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You tried to access one of the main computers of the surveillance room but the computer only registers the password when spoken. Knowing the password by using a password-cracking software you whisper the words, “A miss is as good as a mile” but the computer completely misheard you with “I kiss as good as my wife”. To remedy this error find the minimum edit distance of these two strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the length of the Longest Common Subsequence for the strings “29381049284” and “18249018383”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the length of the Longest Increasing Subsequence for the set {23,10,3,19,-1,2,0,1,39,18,38,11,13,18,27,32,-6,8,7}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many subsets within the set {9,4,8,1,7,5,3} has a sum of 12? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is Dynamic Programming a much preferred approach in solving optimization problems compared to greedy algorithms? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because Greedy algorithms never work!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because Dynamic Programming has a faster time complexity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because it is more efficient in memory space. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because it considers all possible cases and then chooses the best. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is true? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic programming is recursion with repetition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A greedy algorithm constructs a solution with a series of decisions with solving at any recursive subproblems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The algorithm for the Fibonacci sequence with Dynamic Programming is O(2^n). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems involving an optimal substructure and overlapping subproblems can be best solved by Dynamic Programming </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Find the errors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242021"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">in the execution steps of the linear search algorithm implemented</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 3, 11, 27, 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 5, 10, 11, 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 3, 5, 10, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 5, 11, 27, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using insertion sort, which among the following are the steps of insertions done to the array, arr[5] = {12,10,8,6,4,2}?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 10 8 6 2 4 12 10 8 2 4 6 12 10 2 4 6 8 12 2 4 6 8 10 2 4 6 8 10 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 8 6 4 2 12 8 6 4 2 10 12 6 4 2 8 10 12 4 2 6 8 10 12 2 4 6 8 10 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 12 8 6 4 2 4 12 8 6 2 4 6 12 8 2 4 6 8 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 12 8 6 4 2 6 8 10 12 4 2 2 6 8 10 12 4 2 4 6 8 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using insertion sort to sort the array, arr[5]= {5,8,2,1,6,7,12,-1}, what is the total cost of the insertion sort when element -1 reaches the first position of the array if at each insertion the cost would be 2 pesos?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following describes the Linear Search algorithm? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time taken to search elements keep decreasing as the number of elements are increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It scans one item at a time, without jumping at any item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has a time complexity of O(n^2) for integer data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It does not access data sequentially. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When is Linear Search preferred over other searching algorithms? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When dealing with sorted data sets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In cases where there is a large data set. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When data keeps changing frequently </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both a and b.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What advantages can you get by using Brute Force algorithms? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The brute force approach guarantees that it will always find a correct solution to a problem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The brute force method is ideal for solving large and simpler problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brute force approach is fast and efficient. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the above. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_______ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">finds solution(s) by trying all possible paths and then abandoning them if they are not suitable.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhaustive Search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backtracking Paradigm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a chess board having 4 x 4 cells, we need to place 4 queens in such a way that no queen is attacked by any other queen. A queen can attack horizontally, vertically and diagonally. How many times will you backtrack to get all the possible solutions? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is NOT part of the strategy of the backtracking paradigm? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extending a partial solution in some feasible way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trying another extension if the extension fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backing up to a smaller partial solution when the options for extending a partial solution are exhausted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomly explore the space of all potential solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering the list of integers {4,6,2} , which of the following demonstrates the backtracking approach of finding a subset with sum 6? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ } -&gt; {4} -&gt; {4, 6} (found) -&gt; {4} -&gt;{4,2} (found) -&gt; {4} (end) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ } -&gt; {4} -&gt; {4, 6} (found) -&gt; {4,6,2} (found) -&gt; (end) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{4} -&gt; {4, 6} (found) -&gt; {4} -&gt; {4,2} (found) -&gt; { } (end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ } -&gt; {4} -&gt; {4, 6} (found) -&gt; {4} -&gt; {4, 2} (found) -&gt; {4,6}, {4,2} (end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which among these choices is NOT a valid step for the Divide and Conquer paradigm? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine the solutions of the sub-problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break down the problem into smaller sub-problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the sub-problem solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solve the separate sub-problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppose you encounter the  Tower of Hanoi puzzle wherein there are 3 rods where an entire stack of 4 disks must move to another rod (in this case rod C) following these rules:  1) Only one disk can be moved at a time. 2) Each move consists of taking the upper disk from one of the stacks and placing it on top of another stack i.e. a disk can only be moved if it is the uppermost disk on a stack. 3.) No disk may be placed on top of a smaller disk. Using the minimum number of moves to solve this step, what is a possible move for the 13th step? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move biggest disk from rod A to rod B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move third disk from rod A to rod B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move second disk from rod A to rod B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move smallest disk from rod A to rod B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppose vertex 1 is the school’s library and the other vertices are the school’s departments. The library is locked but you remembered you saw the librarian handing the keys to an assistant professor but you don’t know which department. You think of the possible minimum path to visit all of the school’s departments however lunch break is almost over so you took the naïve approach of finding the minimum path. According to your approach how many possible paths are there to go from the library to the school’s departments and back to the library again along with distance of the minimum path? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 paths &amp; minimum distance of 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 paths &amp; minimum distance of 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 paths &amp; minimum distance of 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 paths &amp; minimum distance of 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine the correct order of the following sorting algorithms according to their time efficiency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion Sort  &lt; Merge Sort  &lt; Quick Sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort  &lt; Quick Sort &lt;  Selection Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection Sort &lt;  Heap Sort &lt; Insertion Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort  &lt; Merge Sort &lt; Heap Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the most important “building blocks” you should understand to help you in designing algorithms?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithmic Techniques, Data Structures and Proof techniques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structures, Time complexity and Space Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Multiplication, Fast Fourier Transform and O-notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming, Recursion and Brute force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The keys Mike, May, Ren, Nat, Rey, Carl, Nico, Bri, Joan, and Steph are inserted into an initially empty hash table of length 10 using open addressing with hash function h(k) = k mod 10 and linear probing. What key(s) is/are in index 7 in the hash table?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyze the given program below and indicate it’s time complexity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O(n^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two robots are competing against each other on a sorting match. They have to sort these 10 items {football, baseball, golf ball, volleyball, bowling ball, soccer ball, tennis ball, billiard ball, ping pong,  basketball } from heaviest to lightest. Robot 1 will sort the items using merge sort and Robot 2, quick sort. Who will win the match and how many comparisons did the loser do? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winner is Merge Sort and loser does 21 comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winner is Quick Sort and loser does 22 comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winner is Merge Sort and loser does 23 comparisons. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winner is Quick Sort and loser does 24 comparisons </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -460,10 +894,52 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242021"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF273239"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,7 +984,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,12 +993,64 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -534,7 +1062,183 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF242021"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF273239"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563760</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101880</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5127480" y="13741560"/>
+          <a:ext cx="153360" cy="176760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137880</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248520" y="13741560"/>
+          <a:ext cx="298800" cy="176760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>442080</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31320</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6851520" y="13741560"/>
+          <a:ext cx="204480" cy="207360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,13 +1246,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
   </cols>
@@ -1587,7 +2291,7 @@
       <c r="B36" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D36" s="0" t="s">
@@ -1616,7 +2320,7 @@
       <c r="B37" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -1801,7 +2505,7 @@
       <c r="B44" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D44" s="0" t="s">
@@ -1859,10 +2563,10 @@
       <c r="B46" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E46" s="0" t="s">
@@ -1879,6 +2583,867 @@
       </c>
       <c r="J46" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>26000</v>
+      </c>
+      <c r="F49" s="7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G49" s="7" t="n">
+        <v>36000</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="J69" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1889,5 +3454,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="397">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -484,6 +484,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">/Images/AlgoD_Item2_Image.PNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDIUM</t>
   </si>
   <si>
@@ -493,6 +496,9 @@
     <t xml:space="preserve">0 (this is the optimal solution)</t>
   </si>
   <si>
+    <t xml:space="preserve">/Images/AlgoD_Item3_Image.PNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Before you embarked on your journey, you bought the following items; gloves, knapsack, mask, a new pair of shoes, fake mustache, a beanie, &amp; some tools. The change given to you by the cashier was Php 230. Since it’s rush hour some of their coins and bills ran out, leaving only a set of pesos   {1, 10, 25, 50} to exchange with you. Using the greedy algorithm, what is the fewest number of peso bills/coins the cashier could have given you? </t>
   </si>
   <si>
@@ -521,6 +527,9 @@
   </si>
   <si>
     <t xml:space="preserve">{(M1,M7), (M2,M8), (M3,M5), (M4,M6)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/AlgoD_Item5_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">When does a greedy algorithm produce an optimal solution to a problem? </t>
@@ -612,6 +621,9 @@
   </si>
   <si>
     <t xml:space="preserve">Line 5, 11, 27, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/AlgoD_Item13_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Using insertion sort, which among the following are the steps of insertions done to the array, arr[5] = {12,10,8,6,4,2}?</t>
@@ -778,6 +790,9 @@
     <t xml:space="preserve">Move smallest disk from rod A to rod B </t>
   </si>
   <si>
+    <t xml:space="preserve">/Images/AlgoD_Item24_Image.PNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suppose vertex 1 is the school’s library and the other vertices are the school’s departments. The library is locked but you remembered you saw the librarian handing the keys to an assistant professor but you don’t know which department. You think of the possible minimum path to visit all of the school’s departments however lunch break is almost over so you took the naïve approach of finding the minimum path. According to your approach how many possible paths are there to go from the library to the school’s departments and back to the library again along with distance of the minimum path? </t>
   </si>
   <si>
@@ -793,6 +808,9 @@
     <t xml:space="preserve">7 paths &amp; minimum distance of 25</t>
   </si>
   <si>
+    <t xml:space="preserve">/Images/AlgoD_Item25_Image.PNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Determine the correct order of the following sorting algorithms according to their time efficiency. </t>
   </si>
   <si>
@@ -847,6 +865,9 @@
     <t xml:space="preserve"> O(n^2)</t>
   </si>
   <si>
+    <t xml:space="preserve">/Images/AlgoD_Item29_Image.PNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two robots are competing against each other on a sorting match. They have to sort these 10 items {football, baseball, golf ball, volleyball, bowling ball, soccer ball, tennis ball, billiard ball, ping pong,  basketball } from heaviest to lightest. Robot 1 will sort the items using merge sort and Robot 2, quick sort. Who will win the match and how many comparisons did the loser do? </t>
   </si>
   <si>
@@ -860,6 +881,470 @@
   </si>
   <si>
     <t xml:space="preserve">Winner is Quick Sort and loser does 24 comparisons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/AlgoD_Item30_Image.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intractability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How many possible solutions are there for a 9 Queen’s Puzzle? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following positions for a queen on a 4 X 4 board is part of a solution of a 4 Queen’s Puzzle? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queen positioned at row 2, column 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queen positioned at row 3, column 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queen positioned at row 1, column 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A queen positioned at row 4, column 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppose we’re given an Adjacency Matrix of Graph G (where 0 indicates that the vertex[column] is not connected to the vertex [row] and 1 indicates it is connected to the vertex) and we need to color its 6 vertices using only a maximum of 3 colors where no two adjacent vertices share the same color. What’s one way to color this graph in sequence? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color 1, Color 1, Color 2, Color 1, Color 3, Color 3, Color 1, Color 2, Color 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color 1, Color 2, Color 1, Color 2, Color 1, Color 3, Color 1, Color 3, Color 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color 1, Color 2, Color 3, Color 1, Color 2, Color 1, Color 1, Color 3, Color 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color 1, Color 1, Color 2, Color 3, Color 2, Color 1, Color 1, Color 2, Color 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item3pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the many applications for the graph coloring problem is solving a Sudoku puzzle where the vertices represents the squares of the grid and each number within the squares are connected by an edge to another number that lies within the same row, column or 2x2 grid and must be colored differently from each other. Suppose we have a 2 x 2 box that has characters 1 to 4, how many edges does this graph have? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item4pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a table for pairs of subjects that one or more students are taking together (colored in green), suppose that you are tasked to schedule exams so that there will be no possible conflicts between students taking the subjects.  What timeslots will be possible for scheduling student exams?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeslot B, C &amp; E    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeslot A &amp; D  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeslot C &amp; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeslot A, C &amp; D    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item5pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the maximum clique given a graph with V vertices and E edges V = 8, Edges[][] = {{A,B},{A,C},{B,C},{B,F},{B,D},{C,D},{C,F},{D,E},{D,H},{E,F},{E,G},{E,H},{F,G},{G,H}}? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On accessing a website, a CAPTCHA suddenly pops up and asks you to color this abstract image as few colors as possible in such a way that no shape of the same color shares the same border. It seems as though CAPTCHA’s way of verifying if you’re a human or not is getting a bit complicated but still, how many colors will you use? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item7pic.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Using the greedy algorithm given, what is the correct order of coloring the vertices that would provide the fewest possible colors in coloring graph G with </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> vertices and </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> edges </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= 10, Edges[][] = {{0,1},{0,5},(0,6},{1,2},{1,7},{2,3},{2,5},{3,4},{3,8},{4,5},{4,9},{5,6},{5,9}{6,7},{6,9},{7,8},{8,9}?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Order of vertices: V0, V1, V2, V3, V4, V5, V9, V8, V7, V6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order of vertices: V0, V6, V9, V4, V5, V2, V3, V8, V7, V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order of vertices: V0, V5, V4, V3, V2, V1, V7, V8, V9, V6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order of vertices: V0, V1, V7, V6, V5, V2, V3, V8, V9, V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item8pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given a layout of the building you’re trying to break in.  Suppose that it also has the possible locations where the school would put the CCTV cameras so that they have surveillances in each area using only a minimum number of cameras. On the map, the cameras are indicated in vertices and the edges represent the direction(s) the camera can face. Find out how many CCTV cameras you need to look out for.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 8 CCTV Cameras installed in the building. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 5 CCTV Cameras installed in the building.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 6 CCTV Cameras installed in the building. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 9 CCTV Cameras installed in the building.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item9pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’re given an algorithm for solving the vertex cover of a graph. Suppose our graph G with V vertices &amp; E edges V = 8, Edges[][], {{A,B},{A,J},{A,F},{B,J},{B,C},{C,I},{C,D},{D,I},{D,E},{E,F},{E,G},{F,G},{G,H},{H,I},{H,J}} 
+is given. Which of the following is not a solution? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = [B,J,I,D,F,G]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = [A,B,I,C,E,D,G,H]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = [A,B,I,C,E,D,F,G,H,J]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = [A,B,E,D,F,G,H,J]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item10pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give a truth assignment that satisfies the given Boolean expression. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item11pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcribe this Boolean circuit as a Boolean formula. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item12pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is the satisfiable 3CNF formula that represents the graph of this maximum independent set? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item13pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What satisfiable 3CNF formula is the given 3-colorable graph derived from?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item14pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a graph of a maximum independent set, how many vertices will you need to find the minimum vertex cover? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item15pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does the question of whether P = NP matters?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It matters because of the million dollar reward and fame you’ll attain when you correctly prove it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It hasn’t been proven or disproven for nearly 5 decades now, it matters because of man’s quest for solving the unknown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If P = NP then we can easily solve seemingly hard problems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If P = NP then we can determine which kinds of problems are solvable by computers and which ones are not. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which theorem proved that Circuit satisfiability is NP-hard? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramsey Theorem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook-Levin Theorem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Color Theorem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brook’s Theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sudoku puzzle has been shown to be ______? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP-hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is not an intractable problem? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower of Hanoi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching an unordered list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A _____ is a problem whose output is a single Boolean value. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turing reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph coloring problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset sum problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following has been proven?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP ≠ EXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P ≠ EXP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP ≠ co-NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P = NP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following order of these complexity classes is correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P⊆NP⊆PSPACE⊆EXP⊆NEXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P⊆NP⊆EXP⊆NEXP⊆PSPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP⊆P⊆NEXP⊆EXP⊆PSPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P⊆NP⊆PSPACE⊆NEXP⊆EXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is NOT part of  the general pattern in polynomial-time reductions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform an arbitrary for y into a certificate of y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prove that if x is a “good” instance of X, then y is a “good” instance of Y. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prove that if y is a “good” instance of Y, then x is a “good” instance of X.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a polynomial-time algorithm to transform an arbitrary instance x of X into a special instance y of Y.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is false? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems in P are easy to solve and easy to verify its solution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems in NP may or may not be hard to solve but easy to verify its solution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An algorithm is considered efficient if &amp; only if it can run at polynomial time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is proof that one NP-complete problem is impossible to solve, then we cannot solve P vs NP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How will you classify if a problem is NP hard? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it is impossible to find an efficient algorithm to solve the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the problem is hard to solve but its solution can be easily verified.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the problem is both NP-complete and NP-easy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you can easily reduce a known NP-hard problem to the current problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When is a problem considered NP-complete?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is a polynomial-time algorithm for every problem in NP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a problem is both NP-hard and NP-easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If every decision problem in P is also in NP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the solution to the problem can be verified in polynomial-time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the problem asks to find a small subset satisfying some constraints, what best suitable NP-complete problem will you reduce this from? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircuitSat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinVertexCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxClique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will NOT happen if you found a polynomial-time algorithm for an NP-complete problem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will gain fame and fortune.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All your private information on the internet will be easily accessed.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will impose severe limits on what computers can accomplish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ll wake up to find that it is possible to cure cancer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following information describes why this given diagram is incorrect? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P⊆NP,P⊆coNP,NP≠coNP,NPcomplete ⊆NP &amp; NPhard ⊆NP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P ≠coNP,P⊆NP,coNP⊆NP,NPcomplete ⊆NP &amp; NPhard ⊆coNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coNP⊆NP,P≠NP,NP⊆NPhard &amp; NPhard ⊆Npcomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P⊆NP,P⊆coNP,NP≠coNP,NPcomplete ⊆NP &amp; NPcomplete ⊆Nphard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item29pic.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of these problems do not have a polynomial-time algorithm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N x N Queen’s puzzle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All NP-complete problems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling salesman problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the above. </t>
   </si>
 </sst>
 </file>
@@ -902,12 +1387,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -939,6 +1418,14 @@
       <color rgb="FF273239"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -984,7 +1471,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1009,15 +1496,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,27 +1508,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,15 +1613,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>563760</xdr:colOff>
+      <xdr:colOff>565920</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1151,8 +1634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5127480" y="13741560"/>
-          <a:ext cx="153360" cy="176760"/>
+          <a:off x="5130720" y="13678560"/>
+          <a:ext cx="153360" cy="174600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,15 +1650,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>137880</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1188,8 +1671,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248520" y="13741560"/>
-          <a:ext cx="298800" cy="176760"/>
+          <a:off x="6252480" y="13678560"/>
+          <a:ext cx="298800" cy="174600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,15 +1687,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>442080</xdr:colOff>
+      <xdr:colOff>443160</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:colOff>32040</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1225,8 +1708,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6851520" y="13741560"/>
-          <a:ext cx="204480" cy="207360"/>
+          <a:off x="6855840" y="13678560"/>
+          <a:ext cx="204840" cy="205200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1246,13 +1729,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L101" activeCellId="0" sqref="L101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
   </cols>
@@ -2586,6 +3069,9 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>135</v>
       </c>
@@ -2636,8 +3122,11 @@
       <c r="H48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="I48" s="4" t="s">
         <v>147</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,25 +3137,28 @@
         <v>135</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E49" s="6" t="n">
         <v>26000</v>
       </c>
-      <c r="F49" s="7" t="n">
+      <c r="F49" s="6" t="n">
         <v>16000</v>
       </c>
-      <c r="G49" s="7" t="n">
+      <c r="G49" s="6" t="n">
         <v>36000</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="I49" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="J49" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,19 +3169,19 @@
         <v>135</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>22</v>
@@ -2706,25 +3198,28 @@
         <v>135</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I51" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,19 +3230,19 @@
         <v>135</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>22</v>
@@ -2764,7 +3259,7 @@
         <v>135</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>7</v>
@@ -2782,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,7 +3288,7 @@
         <v>135</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>8</v>
@@ -2811,7 +3306,7 @@
         <v>27</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,8 +3316,8 @@
       <c r="B55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>167</v>
+      <c r="C55" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>8</v>
@@ -2851,7 +3346,7 @@
         <v>135</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>3</v>
@@ -2880,19 +3375,19 @@
         <v>135</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>27</v>
@@ -2909,19 +3404,19 @@
         <v>135</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>27</v>
@@ -2937,23 +3432,26 @@
       <c r="B59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>179</v>
+      <c r="C59" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>17</v>
@@ -2967,19 +3465,19 @@
         <v>135</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>51</v>
@@ -2996,7 +3494,7 @@
         <v>135</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>2</v>
@@ -3014,7 +3512,7 @@
         <v>27</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,25 +3523,25 @@
         <v>135</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,25 +3552,25 @@
         <v>135</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,26 +3580,26 @@
       <c r="B64" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>201</v>
+      <c r="C64" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,26 +3609,26 @@
       <c r="B65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>206</v>
+      <c r="C65" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3639,7 @@
         <v>135</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>10</v>
@@ -3170,19 +3668,19 @@
         <v>135</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>27</v>
@@ -3199,25 +3697,25 @@
         <v>135</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,19 +3726,19 @@
         <v>135</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H69" s="4"/>
       <c r="J69" s="1" t="s">
@@ -3255,24 +3753,27 @@
         <v>135</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G70" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="D70" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="I70" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J70" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3284,25 +3785,28 @@
         <v>135</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="I71" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="J71" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,19 +3817,19 @@
         <v>135</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>22</v>
@@ -3341,25 +3845,25 @@
       <c r="B73" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H73" s="10" t="s">
+      <c r="C73" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H73" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3371,25 +3875,25 @@
         <v>135</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3399,19 +3903,22 @@
       <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>252</v>
+      <c r="C75" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>17</v>
@@ -3425,25 +3932,893 @@
         <v>135</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="I76" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="J76" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>352</v>
+      </c>
+      <c r="G77" s="4" t="n">
+        <v>545</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="474">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -484,7 +484,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item2_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item2_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">MEDIUM</t>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">0 (this is the optimal solution)</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item3_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item3_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">Before you embarked on your journey, you bought the following items; gloves, knapsack, mask, a new pair of shoes, fake mustache, a beanie, &amp; some tools. The change given to you by the cashier was Php 230. Since it’s rush hour some of their coins and bills ran out, leaving only a set of pesos   {1, 10, 25, 50} to exchange with you. Using the greedy algorithm, what is the fewest number of peso bills/coins the cashier could have given you? </t>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">{(M1,M7), (M2,M8), (M3,M5), (M4,M6)}</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item5_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item5_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">When does a greedy algorithm produce an optimal solution to a problem? </t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">Line 5, 11, 27, 28</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item13_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item13_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">Using insertion sort, which among the following are the steps of insertions done to the array, arr[5] = {12,10,8,6,4,2}?</t>
@@ -790,7 +790,7 @@
     <t xml:space="preserve">Move smallest disk from rod A to rod B </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item24_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item24_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">Suppose vertex 1 is the school’s library and the other vertices are the school’s departments. The library is locked but you remembered you saw the librarian handing the keys to an assistant professor but you don’t know which department. You think of the possible minimum path to visit all of the school’s departments however lunch break is almost over so you took the naïve approach of finding the minimum path. According to your approach how many possible paths are there to go from the library to the school’s departments and back to the library again along with distance of the minimum path? </t>
@@ -808,7 +808,7 @@
     <t xml:space="preserve">7 paths &amp; minimum distance of 25</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item25_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item25_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">Determine the correct order of the following sorting algorithms according to their time efficiency. </t>
@@ -865,7 +865,7 @@
     <t xml:space="preserve"> O(n^2)</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item29_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item29_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">Two robots are competing against each other on a sorting match. They have to sort these 10 items {football, baseball, golf ball, volleyball, bowling ball, soccer ball, tennis ball, billiard ball, ping pong,  basketball } from heaviest to lightest. Robot 1 will sort the items using merge sort and Robot 2, quick sort. Who will win the match and how many comparisons did the loser do? </t>
@@ -883,7 +883,7 @@
     <t xml:space="preserve">Winner is Quick Sort and loser does 24 comparisons </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item30_Image.PNG</t>
+    <t xml:space="preserve">/Images/AlgoD_Item30_Image.png</t>
   </si>
   <si>
     <t xml:space="preserve">Intractability</t>
@@ -925,13 +925,13 @@
     <t xml:space="preserve">Color 1, Color 1, Color 2, Color 3, Color 2, Color 1, Color 1, Color 2, Color 3</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item3pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item3pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">One of the many applications for the graph coloring problem is solving a Sudoku puzzle where the vertices represents the squares of the grid and each number within the squares are connected by an edge to another number that lies within the same row, column or 2x2 grid and must be colored differently from each other. Suppose we have a 2 x 2 box that has characters 1 to 4, how many edges does this graph have? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item4pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item4pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">Given a table for pairs of subjects that one or more students are taking together (colored in green), suppose that you are tasked to schedule exams so that there will be no possible conflicts between students taking the subjects.  What timeslots will be possible for scheduling student exams?</t>
@@ -949,7 +949,7 @@
     <t xml:space="preserve">Timeslot A, C &amp; D    </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item5pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item5pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">What is the maximum clique given a graph with V vertices and E edges V = 8, Edges[][] = {{A,B},{A,C},{B,C},{B,F},{B,D},{C,D},{C,F},{D,E},{D,H},{E,F},{E,G},{E,H},{F,G},{G,H}}? </t>
@@ -958,7 +958,7 @@
     <t xml:space="preserve">On accessing a website, a CAPTCHA suddenly pops up and asks you to color this abstract image as few colors as possible in such a way that no shape of the same color shares the same border. It seems as though CAPTCHA’s way of verifying if you’re a human or not is getting a bit complicated but still, how many colors will you use? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item7pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item7pic.png</t>
   </si>
   <si>
     <r>
@@ -1048,7 +1048,7 @@
     <t xml:space="preserve">Order of vertices: V0, V1, V7, V6, V5, V2, V3, V8, V9, V4</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item8pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item8pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">You are given a layout of the building you’re trying to break in.  Suppose that it also has the possible locations where the school would put the CCTV cameras so that they have surveillances in each area using only a minimum number of cameras. On the map, the cameras are indicated in vertices and the edges represent the direction(s) the camera can face. Find out how many CCTV cameras you need to look out for.</t>
@@ -1066,7 +1066,7 @@
     <t xml:space="preserve">There are 9 CCTV Cameras installed in the building.</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item9pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item9pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">We’re given an algorithm for solving the vertex cover of a graph. Suppose our graph G with V vertices &amp; E edges V = 8, Edges[][], {{A,B},{A,J},{A,F},{B,J},{B,C},{C,I},{C,D},{D,I},{D,E},{E,F},{E,G},{F,G},{G,H},{H,I},{H,J}} 
@@ -1086,37 +1086,37 @@
     <t xml:space="preserve">C = [A,B,E,D,F,G,H,J]</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item10pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item10pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">Give a truth assignment that satisfies the given Boolean expression. </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item11pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item11pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">Transcribe this Boolean circuit as a Boolean formula. </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item12pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item12pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following is the satisfiable 3CNF formula that represents the graph of this maximum independent set? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item13pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item13pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">What satisfiable 3CNF formula is the given 3-colorable graph derived from?  </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item14pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item14pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">Given a graph of a maximum independent set, how many vertices will you need to find the minimum vertex cover? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item15pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item15pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">Why does the question of whether P = NP matters?</t>
@@ -1329,7 +1329,7 @@
     <t xml:space="preserve">P⊆NP,P⊆coNP,NP≠coNP,NPcomplete ⊆NP &amp; NPcomplete ⊆Nphard</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item29pic.PNG</t>
+    <t xml:space="preserve">/Images/Intractability_item29pic.png</t>
   </si>
   <si>
     <t xml:space="preserve">Which of these problems do not have a polynomial-time algorithm?</t>
@@ -1345,6 +1345,237 @@
   </si>
   <si>
     <t xml:space="preserve">None of the above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 72, 15, 14, 86, 90, 1, 91, 61, 33, 87 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the second recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 72, 14, 86, 1, 90, 61, 91, 33, 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 14, 15, 72, 86, 33, 61, 87, 90, 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 14, 15, 33, 61, 72, 86, 87, 90, 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72, 15, 14, 86, 90, 1, 91, 61, 33, 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 13, 64, 79, 4, 17, 49, 80, 55 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the third recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 13, 17, 49, 55, 64, 79, 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 64, 79, 4, 17, 49, 80, 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 64, 4, 79, 17, 49, 55, 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 13, 64, 79, 17, 49, 55, 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 85, 30, 63, 1, 7, 100, 40, 76 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the first recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30, 85, 1, 63, 7, 100, 40, 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 30, 63, 85, 7, 40, 76, 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85, 30, 63, 1, 7, 100, 40, 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 7, 30, 40, 63, 76, 85, 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 35, 34, 53, 63, 5, 93, 62, 46 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the fourth recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35, 34, 53, 63, 5, 93, 62, 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 34, 35, 46, 53, 62, 63, 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34, 35, 53, 63, 5, 46, 62, 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34, 35, 53, 63, 5, 93, 46, 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 72, 15, 14, 86, 90, 1, 91, 61 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the last element as its pivot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86, 14, 1, 61, 90, 72, 91, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 14, 1, 61, 90, 72, 91, 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 14, 90, 61, 1, 72, 91, 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72, 15, 14, 86, 90, 1, 91, 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 13, 64, 79, 4, 17, 49, 80, 55 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the first element as its pivot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 13, 79, 55, 17, 49, 80, 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 4, 79, 55, 17, 49, 80, 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, 17, 79, 55, 13, 49, 80, 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 85, 30, 63, 1, 7, 100, 40, 76, 27 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the middle element as its pivot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85, 30, 63, 1, 7, 100, 40, 76, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 1, 63, 85, 27, 100, 40, 76, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27, 7, 63, 85, 1, 100, 40, 76, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 7, 63, 85, 27, 100, 40, 76, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 35, 34, 53, 63, 5, 93, 62, 46, 3 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the median of three as its pivot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34, 5, 53, 63, 35, 93, 62, 46, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35, 34, 53, 63, 5, 93, 62, 46, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 5, 53, 63, 35, 93, 62, 46, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 53, 5, 63, 35, 93, 62, 46, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 659, 446, 171, 433, 871, 146, 332, 369 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the first digit from the right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171, 871, 332, 433, 446, 146, 659, 369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171, 871, 433, 332, 446, 146, 659, 369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">659, 446, 171, 433, 871, 146, 332, 369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369, 171, 446, 433, 871, 146, 332, 659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 197, 686, 772, 228, 465, 836, 635, 110 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the second digit from the right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197, 686, 772, 228, 465, 836, 635, 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110, 228, 635, 836, 465, 772, 686, 197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110, 197, 228, 465, 635, 686, 772, 836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110, 772, 465, 635, 686, 836, 197, 228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 304, 532, 933, 293, 226, 128, 749, 707 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the zeroth digit from the right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707, 532, 933, 293, 226, 128, 749, 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707, 749, 933, 293, 226, 128, 532, 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304, 532, 933, 293, 226, 128, 749, 707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707, 749, 933, 226, 293, 128, 532, 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array with the elements 678, 365, 366, 980, 375, 754, 416, 392 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the zeroth digit from the right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">678, 365, 366, 980, 375, 754, 416, 392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">980, 392, 754, 365, 375, 366, 416, 678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">416, 754, 365, 366, 375, 648, 980, 392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365, 366, 375, 392, 416, 648, 754, 980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following image contains a part of the recursive implementation of the Merge Sort Algorithm, which of the choices is the correct code in implementing Merge functionality of Merge Sort? The code in the choices is to be inserted into *insert code here*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int k = lo; k &lt;= hi; k++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int k = lo; k &lt; hi; k++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int k = lo; k &lt;= hi + 1; k++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int k = lo; k &lt; hi + 1; k++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/SA1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following image contains a part of the recursive implementation of the Quick Sort Algorithm, which of the choices is the correct code in implementing the Partition functionality (Sorting using a pivot) of Quick Sort? The code in the choices is to be inserted into *insert code here*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arr[i + 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arr[i]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/SA2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following image contains the main part of the implementation of the Radix Sort Algorithm, which of the choices is the correct code in implementing the algorithm? The code in the choices is to be inserted into *insert code here*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max1 / exp &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp * max1 / max1 &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max1 + exp / max1 &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp / max1 &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/SA3.png</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1586,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1428,6 +1659,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1471,7 +1708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1485,7 +1722,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1493,7 +1730,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1501,7 +1738,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1534,6 +1771,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1615,13 +1856,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>565920</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>103320</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1634,8 +1875,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5130720" y="13678560"/>
-          <a:ext cx="153360" cy="174600"/>
+          <a:off x="5132160" y="13678920"/>
+          <a:ext cx="153720" cy="173880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,15 +1891,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>456120</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1671,8 +1912,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6252480" y="13678560"/>
-          <a:ext cx="298800" cy="174600"/>
+          <a:off x="6255360" y="13678920"/>
+          <a:ext cx="298800" cy="173880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,13 +1930,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>443160</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>31680</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1708,8 +1949,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6855840" y="13678560"/>
-          <a:ext cx="204840" cy="205200"/>
+          <a:off x="6859080" y="13678920"/>
+          <a:ext cx="205200" cy="204480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,13 +1970,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L101" activeCellId="0" sqref="L101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I120" activeCellId="0" sqref="I120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
   </cols>
@@ -4819,6 +5060,405 @@
       </c>
       <c r="J106" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="495">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -1576,6 +1576,69 @@
   </si>
   <si>
     <t xml:space="preserve">/Images/SA3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metaheuristic Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following image contains code that is part of the implementation of the Firefly Algorithm written in Python. Which part in the general procedure of swarm intelligence algorithms is the shown code?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate all initialized individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproduce individuals to form a new population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate the fitness of each solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update solutions in the archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select solutions with better fitness values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following image contains code that is part of the implementation of the Firefly Algorithm written in Java. Which part in the general procedure of swarm intelligence algorithms is the shown code?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/MA12.png</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1785,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="12" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1730,7 +1793,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="12" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1854,15 +1917,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>565920</xdr:colOff>
+      <xdr:colOff>566280</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1875,8 +1938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5132160" y="13678920"/>
-          <a:ext cx="153720" cy="173880"/>
+          <a:off x="5133600" y="13679280"/>
+          <a:ext cx="154080" cy="173160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1891,15 +1954,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1912,8 +1975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6255360" y="13678920"/>
-          <a:ext cx="298800" cy="173880"/>
+          <a:off x="6258240" y="13679280"/>
+          <a:ext cx="298800" cy="173160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1930,13 +1993,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>443160</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>31680</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1949,8 +2012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6859080" y="13678920"/>
-          <a:ext cx="205200" cy="204480"/>
+          <a:off x="6862320" y="13679280"/>
+          <a:ext cx="205560" cy="203760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1970,13 +2033,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I120" activeCellId="0" sqref="I120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C134" activeCellId="0" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
   </cols>
@@ -5063,6 +5126,9 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
       <c r="B107" s="0" t="s">
         <v>104</v>
       </c>
@@ -5089,7 +5155,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="16" t="s">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="0" t="s">
@@ -5115,7 +5184,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="16" t="s">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C109" s="0" t="s">
@@ -5141,7 +5213,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="16" t="s">
+      <c r="A110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C110" s="0" t="s">
@@ -5167,7 +5242,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="16" t="s">
+      <c r="A111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C111" s="0" t="s">
@@ -5193,7 +5271,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="16" t="s">
+      <c r="A112" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C112" s="0" t="s">
@@ -5219,7 +5300,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C113" s="0" t="s">
@@ -5245,7 +5329,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="16" t="s">
+      <c r="A114" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C114" s="0" t="s">
@@ -5271,7 +5358,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="16" t="s">
+      <c r="A115" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C115" s="0" t="s">
@@ -5297,7 +5387,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="16" t="s">
+      <c r="A116" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C116" s="0" t="s">
@@ -5323,7 +5416,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="16" t="s">
+      <c r="A117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C117" s="0" t="s">
@@ -5349,7 +5445,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="16" t="s">
+      <c r="A118" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C118" s="0" t="s">
@@ -5375,7 +5474,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="16" t="s">
+      <c r="A119" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C119" s="0" t="s">
@@ -5396,7 +5498,7 @@
       <c r="H119" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I119" s="16" t="s">
+      <c r="I119" s="1" t="s">
         <v>461</v>
       </c>
       <c r="J119" s="0" t="s">
@@ -5404,7 +5506,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="16" t="s">
+      <c r="A120" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C120" s="0" t="s">
@@ -5425,7 +5530,7 @@
       <c r="H120" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I120" s="16" t="s">
+      <c r="I120" s="1" t="s">
         <v>467</v>
       </c>
       <c r="J120" s="0" t="s">
@@ -5433,7 +5538,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="16" t="s">
+      <c r="A121" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C121" s="0" t="s">
@@ -5454,13 +5562,399 @@
       <c r="H121" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I121" s="16" t="s">
+      <c r="I121" s="1" t="s">
         <v>473</v>
       </c>
       <c r="J121" s="0" t="s">
         <v>141</v>
       </c>
     </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="512">
   <si>
     <t xml:space="preserve">Question Number</t>
   </si>
@@ -484,7 +484,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item2_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item2_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">MEDIUM</t>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">0 (this is the optimal solution)</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item3_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item3_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Before you embarked on your journey, you bought the following items; gloves, knapsack, mask, a new pair of shoes, fake mustache, a beanie, &amp; some tools. The change given to you by the cashier was Php 230. Since it’s rush hour some of their coins and bills ran out, leaving only a set of pesos   {1, 10, 25, 50} to exchange with you. Using the greedy algorithm, what is the fewest number of peso bills/coins the cashier could have given you? </t>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">{(M1,M7), (M2,M8), (M3,M5), (M4,M6)}</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item5_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item5_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">When does a greedy algorithm produce an optimal solution to a problem? </t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">Line 5, 11, 27, 28</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item13_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item13_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Using insertion sort, which among the following are the steps of insertions done to the array, arr[5] = {12,10,8,6,4,2}?</t>
@@ -790,7 +790,7 @@
     <t xml:space="preserve">Move smallest disk from rod A to rod B </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item24_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item24_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Suppose vertex 1 is the school’s library and the other vertices are the school’s departments. The library is locked but you remembered you saw the librarian handing the keys to an assistant professor but you don’t know which department. You think of the possible minimum path to visit all of the school’s departments however lunch break is almost over so you took the naïve approach of finding the minimum path. According to your approach how many possible paths are there to go from the library to the school’s departments and back to the library again along with distance of the minimum path? </t>
@@ -808,7 +808,7 @@
     <t xml:space="preserve">7 paths &amp; minimum distance of 25</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item25_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item25_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Determine the correct order of the following sorting algorithms according to their time efficiency. </t>
@@ -859,13 +859,16 @@
     <t xml:space="preserve">Analyze the given program below and indicate it’s time complexity.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">O(n) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(sqrt(n))</t>
   </si>
   <si>
     <t xml:space="preserve"> O(n^2)</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item29_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item29_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Two robots are competing against each other on a sorting match. They have to sort these 10 items {football, baseball, golf ball, volleyball, bowling ball, soccer ball, tennis ball, billiard ball, ping pong,  basketball } from heaviest to lightest. Robot 1 will sort the items using merge sort and Robot 2, quick sort. Who will win the match and how many comparisons did the loser do? </t>
@@ -883,7 +886,7 @@
     <t xml:space="preserve">Winner is Quick Sort and loser does 24 comparisons </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item30_Image.png</t>
+    <t xml:space="preserve">/Images/AlgoD_Item30_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Intractability</t>
@@ -925,13 +928,13 @@
     <t xml:space="preserve">Color 1, Color 1, Color 2, Color 3, Color 2, Color 1, Color 1, Color 2, Color 3</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item3pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item3pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">One of the many applications for the graph coloring problem is solving a Sudoku puzzle where the vertices represents the squares of the grid and each number within the squares are connected by an edge to another number that lies within the same row, column or 2x2 grid and must be colored differently from each other. Suppose we have a 2 x 2 box that has characters 1 to 4, how many edges does this graph have? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item4pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item4pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Given a table for pairs of subjects that one or more students are taking together (colored in green), suppose that you are tasked to schedule exams so that there will be no possible conflicts between students taking the subjects.  What timeslots will be possible for scheduling student exams?</t>
@@ -949,7 +952,7 @@
     <t xml:space="preserve">Timeslot A, C &amp; D    </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item5pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item5pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">What is the maximum clique given a graph with V vertices and E edges V = 8, Edges[][] = {{A,B},{A,C},{B,C},{B,F},{B,D},{C,D},{C,F},{D,E},{D,H},{E,F},{E,G},{E,H},{F,G},{G,H}}? </t>
@@ -958,7 +961,7 @@
     <t xml:space="preserve">On accessing a website, a CAPTCHA suddenly pops up and asks you to color this abstract image as few colors as possible in such a way that no shape of the same color shares the same border. It seems as though CAPTCHA’s way of verifying if you’re a human or not is getting a bit complicated but still, how many colors will you use? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item7pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item7pic.PNG</t>
   </si>
   <si>
     <r>
@@ -1048,7 +1051,7 @@
     <t xml:space="preserve">Order of vertices: V0, V1, V7, V6, V5, V2, V3, V8, V9, V4</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item8pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item8pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">You are given a layout of the building you’re trying to break in.  Suppose that it also has the possible locations where the school would put the CCTV cameras so that they have surveillances in each area using only a minimum number of cameras. On the map, the cameras are indicated in vertices and the edges represent the direction(s) the camera can face. Find out how many CCTV cameras you need to look out for.</t>
@@ -1066,7 +1069,7 @@
     <t xml:space="preserve">There are 9 CCTV Cameras installed in the building.</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item9pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item9pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">We’re given an algorithm for solving the vertex cover of a graph. Suppose our graph G with V vertices &amp; E edges V = 8, Edges[][], {{A,B},{A,J},{A,F},{B,J},{B,C},{C,I},{C,D},{D,I},{D,E},{E,F},{E,G},{F,G},{G,H},{H,I},{H,J}} 
@@ -1086,37 +1089,85 @@
     <t xml:space="preserve">C = [A,B,E,D,F,G,H,J]</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item10pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item10pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Give a truth assignment that satisfies the given Boolean expression. </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item11pic.png</t>
+    <t xml:space="preserve">x1 = x4 = F, x2 = x3 = T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1 = x2 = x3= x4 = T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1 = x2 = F , x3= x4 = T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1 = x2 = x4 = T, x3 = F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item11pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Transcribe this Boolean circuit as a Boolean formula. </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item12pic.png</t>
+    <t xml:space="preserve">(y1 = ¬x1) ʌ (y2 = x3 ʌ x4) ʌ (y3 = y1 v x5) ʌ (y4 = x2 v y2)  ʌ z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(y1 = x1) ʌ (y2 = x3  v x4) ʌ (y3 = y1 ʌ x5) ʌ (y4 = x2 ʌ  x3)  v z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(y1 = ¬x1) ʌ (y2 = x3 ʌ x4) v  (y3 = x1 v x5)  v  (y4 = x2 v y2)  ʌ z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(y1 = x1) ʌ (y2 = x3 v x4)  ʌ  (y3 = y1 v x5)  ʌ  (y4 = x3 v y4)  v  z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item12pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following is the satisfiable 3CNF formula that represents the graph of this maximum independent set? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item13pic.png</t>
+    <t xml:space="preserve">(x3 v ¬x3 v ¬x3) ʌ (¬x1 v x1 v x1) ʌ (x2 v ¬x2 v ¬x2)  ʌ (x4 v x4 v ¬x4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x1 v ¬x1 v x3) ʌ (¬x4 v x1 v x4) ʌ (x3 v ¬x2 v x2)  ʌ (x3 v ¬x3 v ¬x4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x1 v ¬x3 v ¬x4) ʌ (¬x1 v ¬x2 v x3) ʌ (x2 v ¬x3 v x4)  ʌ (x1 v ¬x2 v x4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x1 v ¬x1 v ¬x3) ʌ (¬x2 v ¬x3 v x4) ʌ (x1 v ¬x2 v x4)  ʌ (x2 v x3 v ¬x4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item13pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">What satisfiable 3CNF formula is the given 3-colorable graph derived from?  </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item14pic.png</t>
+    <t xml:space="preserve">(A v B v C) ʌ (B v C v D) ʌ (A v ¬B v ¬D)  ʌ (¬A v B v C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A v ¬B v C) ʌ (B v C v ¬D) ʌ (A v ¬C v D)  ʌ (¬A v B v ¬D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A v ¬A v B) ʌ (B v ¬B v C) ʌ (C v ¬C v D)  ʌ (¬C v D v ¬D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A v B v ¬C) ʌ (¬B v C v D) ʌ (B v ¬C v ¬D) ʌ (¬A v ¬B v C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Images/Intractability_item14pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Given a graph of a maximum independent set, how many vertices will you need to find the minimum vertex cover? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item15pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item15pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Why does the question of whether P = NP matters?</t>
@@ -1329,7 +1380,7 @@
     <t xml:space="preserve">P⊆NP,P⊆coNP,NP≠coNP,NPcomplete ⊆NP &amp; NPcomplete ⊆Nphard</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item29pic.png</t>
+    <t xml:space="preserve">/Images/Intractability_item29pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Which of these problems do not have a polynomial-time algorithm?</t>
@@ -1649,7 +1700,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1722,12 +1773,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1771,7 +1816,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1785,7 +1830,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1793,7 +1838,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1801,7 +1846,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1834,10 +1879,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1919,13 +1960,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>566280</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1938,8 +1979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5133600" y="13679280"/>
-          <a:ext cx="154080" cy="173160"/>
+          <a:off x="5135040" y="13701240"/>
+          <a:ext cx="154080" cy="172440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1954,15 +1995,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
+      <xdr:colOff>456840</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>137880</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1975,8 +2016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6258240" y="13679280"/>
-          <a:ext cx="298800" cy="173160"/>
+          <a:off x="6261120" y="13701240"/>
+          <a:ext cx="298800" cy="172440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1991,15 +2032,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>443160</xdr:colOff>
+      <xdr:colOff>443520</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31680</xdr:colOff>
+      <xdr:colOff>31320</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2012,8 +2053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6862320" y="13679280"/>
-          <a:ext cx="205560" cy="203760"/>
+          <a:off x="6865560" y="13701240"/>
+          <a:ext cx="205920" cy="203040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,11 +2076,11 @@
   </sheetPr>
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C134" activeCellId="0" sqref="C134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M55" activeCellId="0" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
   </cols>
@@ -3613,7 +3654,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
@@ -3729,7 +3770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
@@ -4210,19 +4251,23 @@
       <c r="C75" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="F75" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>17</v>
@@ -4236,25 +4281,25 @@
         <v>135</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>148</v>
@@ -4265,10 +4310,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>81</v>
@@ -4294,28 +4339,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,28 +4368,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>141</v>
@@ -4355,10 +4400,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>112</v>
@@ -4376,7 +4421,7 @@
         <v>27</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>141</v>
@@ -4387,28 +4432,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>141</v>
@@ -4419,10 +4464,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>3</v>
@@ -4448,10 +4493,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>2</v>
@@ -4469,7 +4514,7 @@
         <v>51</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>148</v>
@@ -4480,28 +4525,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>148</v>
@@ -4512,60 +4557,60 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>148</v>
@@ -4576,20 +4621,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="H87" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>148</v>
@@ -4600,16 +4653,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>148</v>
@@ -4620,16 +4685,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>148</v>
@@ -4640,16 +4717,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>317</v>
+        <v>330</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>334</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>148</v>
@@ -4660,10 +4749,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>3</v>
@@ -4681,7 +4770,7 @@
         <v>27</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>148</v>
@@ -4692,22 +4781,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>51</v>
@@ -4721,22 +4810,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>16</v>
@@ -4750,22 +4839,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>51</v>
@@ -4779,22 +4868,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>51</v>
@@ -4808,22 +4897,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>16</v>
@@ -4837,22 +4926,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>16</v>
@@ -4866,22 +4955,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>22</v>
@@ -4895,22 +4984,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>22</v>
@@ -4924,22 +5013,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>27</v>
@@ -4953,22 +5042,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>27</v>
@@ -4982,22 +5071,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>16</v>
@@ -5011,22 +5100,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>51</v>
@@ -5040,22 +5129,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>51</v>
@@ -5069,28 +5158,28 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>17</v>
@@ -5101,22 +5190,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>27</v>
@@ -5133,19 +5222,19 @@
         <v>104</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>22</v>
@@ -5162,19 +5251,19 @@
         <v>104</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>27</v>
@@ -5191,19 +5280,19 @@
         <v>104</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>51</v>
@@ -5220,19 +5309,19 @@
         <v>104</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>16</v>
@@ -5249,19 +5338,19 @@
         <v>104</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>16</v>
@@ -5278,19 +5367,19 @@
         <v>104</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>22</v>
@@ -5307,19 +5396,19 @@
         <v>104</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>27</v>
@@ -5336,19 +5425,19 @@
         <v>104</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>51</v>
@@ -5365,19 +5454,19 @@
         <v>104</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>22</v>
@@ -5394,19 +5483,19 @@
         <v>104</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>16</v>
@@ -5423,19 +5512,19 @@
         <v>104</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>51</v>
@@ -5452,19 +5541,19 @@
         <v>104</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>27</v>
@@ -5481,25 +5570,25 @@
         <v>104</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>22</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="J119" s="0" t="s">
         <v>141</v>
@@ -5513,25 +5602,25 @@
         <v>104</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>22</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="J120" s="0" t="s">
         <v>141</v>
@@ -5545,25 +5634,25 @@
         <v>104</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>22</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="J121" s="0" t="s">
         <v>141</v>
@@ -5574,28 +5663,28 @@
         <v>121</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I122" s="16" t="s">
-        <v>480</v>
+      <c r="I122" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="J122" s="0" t="s">
         <v>148</v>
@@ -5606,28 +5695,28 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I123" s="16" t="s">
-        <v>481</v>
+      <c r="I123" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="J123" s="0" t="s">
         <v>148</v>
@@ -5638,28 +5727,28 @@
         <v>123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I124" s="16" t="s">
-        <v>484</v>
+      <c r="I124" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="J124" s="0" t="s">
         <v>148</v>
@@ -5670,28 +5759,28 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I125" s="16" t="s">
-        <v>485</v>
+      <c r="I125" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="J125" s="0" t="s">
         <v>148</v>
@@ -5702,28 +5791,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I126" s="16" t="s">
-        <v>486</v>
+      <c r="I126" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>148</v>
@@ -5734,28 +5823,28 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I127" s="16" t="s">
-        <v>487</v>
+      <c r="I127" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="J127" s="0" t="s">
         <v>148</v>
@@ -5766,28 +5855,28 @@
         <v>127</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I128" s="16" t="s">
-        <v>489</v>
+      <c r="I128" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>141</v>
@@ -5798,28 +5887,28 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I129" s="16" t="s">
-        <v>490</v>
+      <c r="I129" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>141</v>
@@ -5830,28 +5919,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I130" s="16" t="s">
-        <v>491</v>
+      <c r="I130" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="J130" s="0" t="s">
         <v>148</v>
@@ -5862,28 +5951,28 @@
         <v>130</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I131" s="16" t="s">
-        <v>492</v>
+      <c r="I131" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="J131" s="0" t="s">
         <v>141</v>
@@ -5894,28 +5983,28 @@
         <v>131</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I132" s="16" t="s">
-        <v>493</v>
+      <c r="I132" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="J132" s="0" t="s">
         <v>141</v>
@@ -5926,28 +6015,28 @@
         <v>132</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I133" s="16" t="s">
-        <v>494</v>
+      <c r="I133" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="J133" s="0" t="s">
         <v>141</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico Dela Cruz\Documents\Work\game-database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499BF0AC-3C42-4B8B-9344-699A0D85939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,434 +25,434 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="512">
-  <si>
-    <t xml:space="preserve">Question Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choice D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct Choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Filename (Optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph Theory: A Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider a small country with five cities: A, B, C, D, E. There are six flights: A-B, A-C, A-E, B-D, C-D, C-E. Can one get from A to D with only one step?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, there is a direct flight from A to D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, there is no direct flight from A to D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maybe, there may be a direct flight from A to D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, there is a direct flight from A to C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EASY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, one can fly through B or C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, all the paths from A to D have exactly two steps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, one can fly through E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, all the paths from A to D have exactly three steps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider a small country with five cities: A, B, C, D, E. There are six flights: A-B, A-C, A-E, B-D, C-D, C-E. Can one get from A to D with exactly two steps?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, one can stop at B and C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, one can stop at B and E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, one can stop at E and C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Graph G = (V, E). V is a set of Vertices/Nodes and E is the set of Edges. How many vertices does the graph shown below have?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Vertices/Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 Vertices/Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 Vertices/Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 Vertices/Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/GT4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Graph G = (V, E). V is a set of Vertices/Nodes and E is the set of Edges. How many edges does the graph shown below have?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 Edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/GT5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following choices are false for the image attached below?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e connects u and v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u and v are end points of e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u and e are incident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v and e are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/GT6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ______ of a vertex is the number of its incident edges, or the number of its neighbors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The degree of a graph is the maximum degree of its ______.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the degree of the vertex A of the graph show below?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/GT9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ______ graph is a graph where each vertex has the same degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complementary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ______ in a graph is a sequence of edges, such that each edge (except for the first one) starts with a vertex where the previous edge ended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ______ is a walk where all edges are distinct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">directed walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connected walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ______ is a walk where all vertices are distinct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simple path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simple walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simple cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complicated walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ______ in a graph is a path whose vertex is the same as the last one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ______ is a cycle where all vertices except for the first one are distinct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distinct cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complex cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complicated cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorting Algorithms</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="696">
+  <si>
+    <t>Question Number</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Choice A</t>
+  </si>
+  <si>
+    <t>Choice B</t>
+  </si>
+  <si>
+    <t>Choice C</t>
+  </si>
+  <si>
+    <t>Choice D</t>
+  </si>
+  <si>
+    <t>Correct Choice</t>
+  </si>
+  <si>
+    <t>Image Filename (Optional)</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Graph Theory: A Review</t>
+  </si>
+  <si>
+    <t>Consider a small country with five cities: A, B, C, D, E. There are six flights: A-B, A-C, A-E, B-D, C-D, C-E. Can one get from A to D with only one step?</t>
+  </si>
+  <si>
+    <t>Yes, there is a direct flight from A to D.</t>
+  </si>
+  <si>
+    <t>No, there is no direct flight from A to D.</t>
+  </si>
+  <si>
+    <t>Maybe, there may be a direct flight from A to D.</t>
+  </si>
+  <si>
+    <t>Yes, there is a direct flight from A to C.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>Yes, one can fly through B or C.</t>
+  </si>
+  <si>
+    <t>No, all the paths from A to D have exactly two steps.</t>
+  </si>
+  <si>
+    <t>Yes, one can fly through E.</t>
+  </si>
+  <si>
+    <t>No, all the paths from A to D have exactly three steps.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Consider a small country with five cities: A, B, C, D, E. There are six flights: A-B, A-C, A-E, B-D, C-D, C-E. Can one get from A to D with exactly two steps?</t>
+  </si>
+  <si>
+    <t>Yes, one can stop at B and C.</t>
+  </si>
+  <si>
+    <t>Yes, one can stop at B and E.</t>
+  </si>
+  <si>
+    <t>Yes, one can stop at E and C.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A Graph G = (V, E). V is a set of Vertices/Nodes and E is the set of Edges. How many vertices does the graph shown below have?</t>
+  </si>
+  <si>
+    <t>10 Vertices/Nodes</t>
+  </si>
+  <si>
+    <t>9 Vertices/Nodes</t>
+  </si>
+  <si>
+    <t>11 Vertices/Nodes</t>
+  </si>
+  <si>
+    <t>8 Vertices/Nodes</t>
+  </si>
+  <si>
+    <t>/Images/GT4.png</t>
+  </si>
+  <si>
+    <t>A Graph G = (V, E). V is a set of Vertices/Nodes and E is the set of Edges. How many edges does the graph shown below have?</t>
+  </si>
+  <si>
+    <t>16 Edges</t>
+  </si>
+  <si>
+    <t>15 Edges</t>
+  </si>
+  <si>
+    <t>14 Edges</t>
+  </si>
+  <si>
+    <t>13 Edges</t>
+  </si>
+  <si>
+    <t>/Images/GT5.png</t>
+  </si>
+  <si>
+    <t>Which of the following choices are false for the image attached below?</t>
+  </si>
+  <si>
+    <t>e connects u and v</t>
+  </si>
+  <si>
+    <t>u and v are end points of e</t>
+  </si>
+  <si>
+    <t>u and e are incident</t>
+  </si>
+  <si>
+    <t>v and e are adjacent</t>
+  </si>
+  <si>
+    <t>/Images/GT6.png</t>
+  </si>
+  <si>
+    <t>The ______ of a vertex is the number of its incident edges, or the number of its neighbors.</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>The degree of a graph is the maximum degree of its ______.</t>
+  </si>
+  <si>
+    <t>complements</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>vertices</t>
+  </si>
+  <si>
+    <t>What is the degree of the vertex A of the graph show below?</t>
+  </si>
+  <si>
+    <t>/Images/GT9.png</t>
+  </si>
+  <si>
+    <t>A ______ graph is a graph where each vertex has the same degree.</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>complementary</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>connected</t>
+  </si>
+  <si>
+    <t>A ______ in a graph is a sequence of edges, such that each edge (except for the first one) starts with a vertex where the previous edge ended.</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>A ______ is a walk where all edges are distinct.</t>
+  </si>
+  <si>
+    <t>directed walk</t>
+  </si>
+  <si>
+    <t>connected walk</t>
+  </si>
+  <si>
+    <t>A ______ is a walk where all vertices are distinct.</t>
+  </si>
+  <si>
+    <t>simple path</t>
+  </si>
+  <si>
+    <t>simple walk</t>
+  </si>
+  <si>
+    <t>simple cycle</t>
+  </si>
+  <si>
+    <t>complicated walk</t>
+  </si>
+  <si>
+    <t>A ______ in a graph is a path whose vertex is the same as the last one.</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>A ______ is a cycle where all vertices except for the first one are distinct.</t>
+  </si>
+  <si>
+    <t>distinct cycle</t>
+  </si>
+  <si>
+    <t>complex cycle</t>
+  </si>
+  <si>
+    <t>complicated cycle</t>
+  </si>
+  <si>
+    <t>Sorting Algorithms</t>
   </si>
   <si>
     <t xml:space="preserve">______ sort is a simple and the slowest sorting algorithm.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Bubble Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insertion Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort is a simple and efficient sorting algorithm useful for small lists and mostly sorted list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort works by finding the smallest or highest element (most probably desired element) from the unsorted list and swaps with the first element in the sorted list and then finds the next smallest element from the unsorted list and swap with the second element in the sorted list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort works by splitting the unsorted array into n sub array recursively until each sub array has 1 element. In general an array with one element is considered to be sorted. Consequently it merges each sub array to generate a final sorted array.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort works by selecting elements from unsorted array named as a pivot and split the array into two parts called sub arrays and reconstruct the former part with the elements smaller than the pivot and the latter with elements larger than the pivot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort is the fastest general purpose internal sorting algorithm on the average among other sophisticated algorithms.</t>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>______ sort is a simple and efficient sorting algorithm useful for small lists and mostly sorted list.</t>
+  </si>
+  <si>
+    <t>______ sort works by finding the smallest or highest element (most probably desired element) from the unsorted list and swaps with the first element in the sorted list and then finds the next smallest element from the unsorted list and swap with the second element in the sorted list.</t>
+  </si>
+  <si>
+    <t>______ sort works by splitting the unsorted array into n sub array recursively until each sub array has 1 element. In general an array with one element is considered to be sorted. Consequently it merges each sub array to generate a final sorted array.</t>
+  </si>
+  <si>
+    <t>______ sort works by selecting elements from unsorted array named as a pivot and split the array into two parts called sub arrays and reconstruct the former part with the elements smaller than the pivot and the latter with elements larger than the pivot.</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>______ sort is the fastest general purpose internal sorting algorithm on the average among other sophisticated algorithms.</t>
   </si>
   <si>
     <t xml:space="preserve">______ sort works by inserting each element into its appropriate position in the final sorted list. </t>
   </si>
   <si>
-    <t xml:space="preserve">______ sort works by comparing each element in the list with its neighboring elements and swapping them if they are in undesirable order.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort is another simple sorting method that works better than bubble sort and worse than insertion sort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort is based on the heap data structure and in-place sorting algorithm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radix Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort works by building a heap from the input array and then removing the maximum element from the heap and placing it at the end of the final sorted array i.e n − 1th position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort is a linear sorting algorithm and works without comparing any elements unlike other sorting methods such as insertion sort and quick sort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort works by sorting data elements with keys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ sort is an integer sorting algorithm with linear running time complexity</t>
+    <t>______ sort works by comparing each element in the list with its neighboring elements and swapping them if they are in undesirable order.</t>
+  </si>
+  <si>
+    <t>______ sort is another simple sorting method that works better than bubble sort and worse than insertion sort.</t>
+  </si>
+  <si>
+    <t>______ sort is based on the heap data structure and in-place sorting algorithm.</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>______ sort works by building a heap from the input array and then removing the maximum element from the heap and placing it at the end of the final sorted array i.e n − 1th position.</t>
+  </si>
+  <si>
+    <t>______ sort is a linear sorting algorithm and works without comparing any elements unlike other sorting methods such as insertion sort and quick sort.</t>
+  </si>
+  <si>
+    <t>______ sort works by sorting data elements with keys.</t>
+  </si>
+  <si>
+    <t>______ sort is an integer sorting algorithm with linear running time complexity</t>
   </si>
   <si>
     <t xml:space="preserve">______ sort works by counting the number of occurrences of each element in the input usually called as keys and store this information into another array called C. </t>
   </si>
   <si>
-    <t xml:space="preserve">Searching Algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ search sequentially checks each element of the list until a match is found or the whole list has been searched.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In ______ search, we search an element or value in a given array by traversing the array from the starting, till the desired element or value is found.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______search is the simplest search algorithm and often called sequential search​.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ search is also known as half-interval search.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ search is also known as logarithmic search.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ search is also known as binary chop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ search is a search algorithm that finds the position of a target value within a sorted array.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ search is an efficient algorithm for finding an item from a sorted list of items.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ search works by repeatedly dividing in half the portion of the list that could contain the item, until you've narrowed down the possible locations to just one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear search has a time complexity of ______.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O(logn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O(n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O(!n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O(nlogn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary search has a time complexity of ______.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The objective of ______ searching is to find the location of a specific text pattern within a larger body of text.</t>
+    <t>Searching Algorithms</t>
+  </si>
+  <si>
+    <t>______ search sequentially checks each element of the list until a match is found or the whole list has been searched.</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>In ______ search, we search an element or value in a given array by traversing the array from the starting, till the desired element or value is found.</t>
+  </si>
+  <si>
+    <t>______search is the simplest search algorithm and often called sequential search​.</t>
+  </si>
+  <si>
+    <t>______ search is also known as half-interval search.</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>______ search is also known as logarithmic search.</t>
+  </si>
+  <si>
+    <t>______ search is also known as binary chop.</t>
+  </si>
+  <si>
+    <t>______ search is a search algorithm that finds the position of a target value within a sorted array.</t>
+  </si>
+  <si>
+    <t>______ search is an efficient algorithm for finding an item from a sorted list of items.</t>
+  </si>
+  <si>
+    <t>______ search works by repeatedly dividing in half the portion of the list that could contain the item, until you've narrowed down the possible locations to just one.</t>
+  </si>
+  <si>
+    <t>Linear search has a time complexity of ______.</t>
+  </si>
+  <si>
+    <t>O(logn)</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(!n)</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>Binary search has a time complexity of ______.</t>
+  </si>
+  <si>
+    <t>The objective of ______ searching is to find the location of a specific text pattern within a larger body of text.</t>
   </si>
   <si>
     <t xml:space="preserve">There are a number of ______ searching algorithms in existence today, but the two examples are Brute Force and Rabin-Karp.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The ______ algorithm compares the pattern to the text, one character at a time, until unmatching characters are found.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin-Karp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brute Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search</t>
+    <t>The ______ algorithm compares the pattern to the text, one character at a time, until unmatching characters are found.</t>
+  </si>
+  <si>
+    <t>Rabin-Karp</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
   <si>
     <t xml:space="preserve">The ______ string searching algorithm uses a hash function to speed up the search.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Boyer–Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knuth–Morris–Pratt</t>
+    <t>Boyer–Moore</t>
+  </si>
+  <si>
+    <t>Knuth–Morris–Pratt</t>
   </si>
   <si>
     <t xml:space="preserve">Algorithmic Design </t>
   </si>
   <si>
-    <t xml:space="preserve">Using the Huffman Code, how many bits would you need to encode the word ‘Pneumonoultramicroscopicsilicovolcanokoniosis’?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">654 bits</t>
+    <t>Using the Huffman Code, how many bits would you need to encode the word ‘Pneumonoultramicroscopicsilicovolcanokoniosis’?</t>
+  </si>
+  <si>
+    <t>201 bits</t>
+  </si>
+  <si>
+    <t>654 bits</t>
   </si>
   <si>
     <t xml:space="preserve">163 bits </t>
   </si>
   <si>
-    <t xml:space="preserve">871 bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HARD</t>
+    <t>871 bits</t>
+  </si>
+  <si>
+    <t>HARD</t>
   </si>
   <si>
     <t xml:space="preserve">Suppose you are trying to infiltrate as many computers as possible but you can only access one computer at a time. How fast you retrieve information from it depends on the computer’s start up processing time and finishing time. In sequence, which computers will you infiltrate to? </t>
@@ -459,7 +464,7 @@
     <t xml:space="preserve">Computer 4 – Computer 6 – Computer 7 – Computer 2     </t>
   </si>
   <si>
-    <t xml:space="preserve">Computer 4  – Computer 1 – Computer 6 – computer 8</t>
+    <t>Computer 4  – Computer 1 – Computer 6 – computer 8</t>
   </si>
   <si>
     <r>
@@ -480,23 +485,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Computer 1 – Computer 4 - Computer  8  – Computer 6</t>
+      <t>Computer 1 – Computer 4 - Computer  8  – Computer 6</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item2_Image.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIUM</t>
+    <t>/Images/AlgoD_Item2_Image.PNG</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
   </si>
   <si>
     <t xml:space="preserve">You come across a storage room filled with the latest high-tech gadgets and gizmos worth a lot of money. You’re tempted to take every single one but you only have one knapsack that could only fit 7 kilos of items so you take the items with the most value. How much more money could you have gained if you took a dynamic approach in selecting the items? </t>
   </si>
   <si>
-    <t xml:space="preserve">0 (this is the optimal solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/AlgoD_Item3_Image.PNG</t>
+    <t>0 (this is the optimal solution)</t>
+  </si>
+  <si>
+    <t>/Images/AlgoD_Item3_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Before you embarked on your journey, you bought the following items; gloves, knapsack, mask, a new pair of shoes, fake mustache, a beanie, &amp; some tools. The change given to you by the cashier was Php 230. Since it’s rush hour some of their coins and bills ran out, leaving only a set of pesos   {1, 10, 25, 50} to exchange with you. Using the greedy algorithm, what is the fewest number of peso bills/coins the cashier could have given you? </t>
@@ -505,55 +510,55 @@
     <t xml:space="preserve">{ 50, 50, 50,50, 25,1,1,1,1,1}   </t>
   </si>
   <si>
-    <t xml:space="preserve">{ 50, 50, 50,50, 10,10,10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ 50, 50, 50,25, 1,1,1,1,1,25,25}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{50, 50, 25, 25, 25, 25, 10, 10, 10}</t>
+    <t>{ 50, 50, 50,50, 10,10,10}</t>
+  </si>
+  <si>
+    <t>{ 50, 50, 50,25, 1,1,1,1,1,25,25}</t>
+  </si>
+  <si>
+    <t>{50, 50, 25, 25, 25, 25, 10, 10, 10}</t>
   </si>
   <si>
     <t xml:space="preserve">You are assigned to be the leader of the hacking operation. To execute the task effectively you split your members into pairs. However, most of your members agrees to be paired with a partner according to their preference. What one stable match could you think of? </t>
   </si>
   <si>
-    <t xml:space="preserve">{(M1,M6), (M2,M5), (M3,M8), (M4,M7)}</t>
+    <t>{(M1,M6), (M2,M5), (M3,M8), (M4,M7)}</t>
   </si>
   <si>
     <t xml:space="preserve">{(M1,M6), (M2,M7), (M3,M5), (M4,M8)} </t>
   </si>
   <si>
-    <t xml:space="preserve">{(M1,M8), (M2,M5), (M3,M6), (M4,M7)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{(M1,M7), (M2,M8), (M3,M5), (M4,M6)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/AlgoD_Item5_Image.PNG</t>
+    <t>{(M1,M8), (M2,M5), (M3,M6), (M4,M7)}</t>
+  </si>
+  <si>
+    <t>{(M1,M7), (M2,M8), (M3,M5), (M4,M6)}</t>
+  </si>
+  <si>
+    <t>/Images/AlgoD_Item5_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">When does a greedy algorithm produce an optimal solution to a problem? </t>
   </si>
   <si>
-    <t xml:space="preserve">When a global optimal solution can be found by choosing the optimal solution at each step</t>
+    <t>When a global optimal solution can be found by choosing the optimal solution at each step</t>
   </si>
   <si>
     <t xml:space="preserve">When it finds a global optimal solution by recursively trying to build a solution incrementally, one piece at a time, recursively evaluating every alternative and choosing the best one. </t>
   </si>
   <si>
-    <t xml:space="preserve">If it evaluates each and every possibility until it finds the global optimal solution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If an optimal solution can be created for a problem by constructing optimal solutions for its sub problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You tried to access one of the main computers of the surveillance room but the computer only registers the password when spoken. Knowing the password by using a password-cracking software you whisper the words, “A miss is as good as a mile” but the computer completely misheard you with “I kiss as good as my wife”. To remedy this error find the minimum edit distance of these two strings.</t>
+    <t>If it evaluates each and every possibility until it finds the global optimal solution.</t>
+  </si>
+  <si>
+    <t>If an optimal solution can be created for a problem by constructing optimal solutions for its sub problems.</t>
+  </si>
+  <si>
+    <t>You tried to access one of the main computers of the surveillance room but the computer only registers the password when spoken. Knowing the password by using a password-cracking software you whisper the words, “A miss is as good as a mile” but the computer completely misheard you with “I kiss as good as my wife”. To remedy this error find the minimum edit distance of these two strings.</t>
   </si>
   <si>
     <t xml:space="preserve">What is the length of the Longest Common Subsequence for the strings “29381049284” and “18249018383”. </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the length of the Longest Increasing Subsequence for the set {23,10,3,19,-1,2,0,1,39,18,38,11,13,18,27,32,-6,8,7}.</t>
+    <t>Find the length of the Longest Increasing Subsequence for the set {23,10,3,19,-1,2,0,1,39,18,38,11,13,18,27,32,-6,8,7}.</t>
   </si>
   <si>
     <t xml:space="preserve">How many subsets within the set {9,4,8,1,7,5,3} has a sum of 12? </t>
@@ -562,7 +567,7 @@
     <t xml:space="preserve">Why is Dynamic Programming a much preferred approach in solving optimization problems compared to greedy algorithms? </t>
   </si>
   <si>
-    <t xml:space="preserve">Because Greedy algorithms never work!</t>
+    <t>Because Greedy algorithms never work!</t>
   </si>
   <si>
     <t xml:space="preserve">Because Dynamic Programming has a faster time complexity. </t>
@@ -607,7 +612,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">in the execution steps of the linear search algorithm implemented</t>
+      <t>in the execution steps of the linear search algorithm implemented</t>
     </r>
   </si>
   <si>
@@ -617,22 +622,22 @@
     <t xml:space="preserve">Line 5, 10, 11, 29 </t>
   </si>
   <si>
-    <t xml:space="preserve">Line 3, 5, 10, 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line 5, 11, 27, 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/AlgoD_Item13_Image.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using insertion sort, which among the following are the steps of insertions done to the array, arr[5] = {12,10,8,6,4,2}?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 10 8 6 2 4 12 10 8 2 4 6 12 10 2 4 6 8 12 2 4 6 8 10 2 4 6 8 10 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 8 6 4 2 12 8 6 4 2 10 12 6 4 2 8 10 12 4 2 6 8 10 12 2 4 6 8 10 12</t>
+    <t>Line 3, 5, 10, 11</t>
+  </si>
+  <si>
+    <t>Line 5, 11, 27, 28</t>
+  </si>
+  <si>
+    <t>/Images/AlgoD_Item13_Image.PNG</t>
+  </si>
+  <si>
+    <t>Using insertion sort, which among the following are the steps of insertions done to the array, arr[5] = {12,10,8,6,4,2}?</t>
+  </si>
+  <si>
+    <t>12 10 8 6 2 4 12 10 8 2 4 6 12 10 2 4 6 8 12 2 4 6 8 10 2 4 6 8 10 12</t>
+  </si>
+  <si>
+    <t>10 8 6 4 2 12 8 6 4 2 10 12 6 4 2 8 10 12 4 2 6 8 10 12 2 4 6 8 10 12</t>
   </si>
   <si>
     <t xml:space="preserve">2 12 8 6 4 2 4 12 8 6 2 4 6 12 8 2 4 6 8 12 </t>
@@ -647,13 +652,13 @@
     <t xml:space="preserve">Which of the following describes the Linear Search algorithm? </t>
   </si>
   <si>
-    <t xml:space="preserve">Time taken to search elements keep decreasing as the number of elements are increased.</t>
+    <t>Time taken to search elements keep decreasing as the number of elements are increased.</t>
   </si>
   <si>
     <t xml:space="preserve">It scans one item at a time, without jumping at any item </t>
   </si>
   <si>
-    <t xml:space="preserve">It has a time complexity of O(n^2) for integer data</t>
+    <t>It has a time complexity of O(n^2) for integer data</t>
   </si>
   <si>
     <t xml:space="preserve">It does not access data sequentially. </t>
@@ -665,7 +670,7 @@
     <t xml:space="preserve">When is Linear Search preferred over other searching algorithms? </t>
   </si>
   <si>
-    <t xml:space="preserve">When dealing with sorted data sets.</t>
+    <t>When dealing with sorted data sets.</t>
   </si>
   <si>
     <t xml:space="preserve">In cases where there is a large data set. </t>
@@ -674,7 +679,7 @@
     <t xml:space="preserve">When data keeps changing frequently </t>
   </si>
   <si>
-    <t xml:space="preserve">Both a and b.</t>
+    <t>Both a and b.</t>
   </si>
   <si>
     <t xml:space="preserve">What advantages can you get by using Brute Force algorithms? </t>
@@ -683,7 +688,7 @@
     <t xml:space="preserve">The brute force approach guarantees that it will always find a correct solution to a problem. </t>
   </si>
   <si>
-    <t xml:space="preserve">The brute force method is ideal for solving large and simpler problems.</t>
+    <t>The brute force method is ideal for solving large and simpler problems.</t>
   </si>
   <si>
     <t xml:space="preserve">Brute force approach is fast and efficient. </t>
@@ -694,7 +699,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
@@ -711,20 +716,20 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">finds solution(s) by trying all possible paths and then abandoning them if they are not suitable.</t>
+      <t>finds solution(s) by trying all possible paths and then abandoning them if they are not suitable.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Greedy Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
+    <t>Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
   </si>
   <si>
     <t xml:space="preserve">Exhaustive Search </t>
   </si>
   <si>
-    <t xml:space="preserve">Backtracking Paradigm</t>
+    <t>Backtracking Paradigm</t>
   </si>
   <si>
     <t xml:space="preserve">Given a chess board having 4 x 4 cells, we need to place 4 queens in such a way that no queen is attacked by any other queen. A queen can attack horizontally, vertically and diagonally. How many times will you backtrack to get all the possible solutions? </t>
@@ -733,13 +738,13 @@
     <t xml:space="preserve">Which of the following is NOT part of the strategy of the backtracking paradigm? </t>
   </si>
   <si>
-    <t xml:space="preserve">extending a partial solution in some feasible way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trying another extension if the extension fails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backing up to a smaller partial solution when the options for extending a partial solution are exhausted</t>
+    <t>extending a partial solution in some feasible way</t>
+  </si>
+  <si>
+    <t>trying another extension if the extension fails</t>
+  </si>
+  <si>
+    <t>backing up to a smaller partial solution when the options for extending a partial solution are exhausted</t>
   </si>
   <si>
     <t xml:space="preserve">randomly explore the space of all potential solutions </t>
@@ -754,61 +759,61 @@
     <t xml:space="preserve">{ } -&gt; {4} -&gt; {4, 6} (found) -&gt; {4,6,2} (found) -&gt; (end) </t>
   </si>
   <si>
-    <t xml:space="preserve">{4} -&gt; {4, 6} (found) -&gt; {4} -&gt; {4,2} (found) -&gt; { } (end)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ } -&gt; {4} -&gt; {4, 6} (found) -&gt; {4} -&gt; {4, 2} (found) -&gt; {4,6}, {4,2} (end)</t>
+    <t>{4} -&gt; {4, 6} (found) -&gt; {4} -&gt; {4,2} (found) -&gt; { } (end)</t>
+  </si>
+  <si>
+    <t>{ } -&gt; {4} -&gt; {4, 6} (found) -&gt; {4} -&gt; {4, 2} (found) -&gt; {4,6}, {4,2} (end)</t>
   </si>
   <si>
     <t xml:space="preserve">Which among these choices is NOT a valid step for the Divide and Conquer paradigm? </t>
   </si>
   <si>
-    <t xml:space="preserve">Combine the solutions of the sub-problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break down the problem into smaller sub-problems</t>
+    <t>Combine the solutions of the sub-problems.</t>
+  </si>
+  <si>
+    <t>Break down the problem into smaller sub-problems</t>
   </si>
   <si>
     <t xml:space="preserve">Store the sub-problem solutions </t>
   </si>
   <si>
-    <t xml:space="preserve">Solve the separate sub-problems</t>
+    <t>Solve the separate sub-problems</t>
   </si>
   <si>
     <t xml:space="preserve">Suppose you encounter the  Tower of Hanoi puzzle wherein there are 3 rods where an entire stack of 4 disks must move to another rod (in this case rod C) following these rules:  1) Only one disk can be moved at a time. 2) Each move consists of taking the upper disk from one of the stacks and placing it on top of another stack i.e. a disk can only be moved if it is the uppermost disk on a stack. 3.) No disk may be placed on top of a smaller disk. Using the minimum number of moves to solve this step, what is a possible move for the 13th step? </t>
   </si>
   <si>
-    <t xml:space="preserve">Move biggest disk from rod A to rod B</t>
+    <t>Move biggest disk from rod A to rod B</t>
   </si>
   <si>
     <t xml:space="preserve">Move third disk from rod A to rod B </t>
   </si>
   <si>
-    <t xml:space="preserve">Move second disk from rod A to rod B</t>
+    <t>Move second disk from rod A to rod B</t>
   </si>
   <si>
     <t xml:space="preserve">Move smallest disk from rod A to rod B </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item24_Image.PNG</t>
+    <t>/Images/AlgoD_Item24_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Suppose vertex 1 is the school’s library and the other vertices are the school’s departments. The library is locked but you remembered you saw the librarian handing the keys to an assistant professor but you don’t know which department. You think of the possible minimum path to visit all of the school’s departments however lunch break is almost over so you took the naïve approach of finding the minimum path. According to your approach how many possible paths are there to go from the library to the school’s departments and back to the library again along with distance of the minimum path? </t>
   </si>
   <si>
-    <t xml:space="preserve">4 paths &amp; minimum distance of 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 paths &amp; minimum distance of 16</t>
+    <t>4 paths &amp; minimum distance of 10</t>
+  </si>
+  <si>
+    <t>5 paths &amp; minimum distance of 16</t>
   </si>
   <si>
     <t xml:space="preserve">6 paths &amp; minimum distance of 19 </t>
   </si>
   <si>
-    <t xml:space="preserve">7 paths &amp; minimum distance of 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/AlgoD_Item25_Image.PNG</t>
+    <t>7 paths &amp; minimum distance of 25</t>
+  </si>
+  <si>
+    <t>/Images/AlgoD_Item25_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Determine the correct order of the following sorting algorithms according to their time efficiency. </t>
@@ -817,67 +822,67 @@
     <t xml:space="preserve">Insertion Sort  &lt; Merge Sort  &lt; Quick Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Merge Sort  &lt; Quick Sort &lt;  Selection Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection Sort &lt;  Heap Sort &lt; Insertion Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort  &lt; Merge Sort &lt; Heap Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the most important “building blocks” you should understand to help you in designing algorithms?</t>
+    <t>Merge Sort  &lt; Quick Sort &lt;  Selection Sort</t>
+  </si>
+  <si>
+    <t>Selection Sort &lt;  Heap Sort &lt; Insertion Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort  &lt; Merge Sort &lt; Heap Sort</t>
+  </si>
+  <si>
+    <t>What are the most important “building blocks” you should understand to help you in designing algorithms?</t>
   </si>
   <si>
     <t xml:space="preserve">Algorithmic Techniques, Data Structures and Proof techniques </t>
   </si>
   <si>
-    <t xml:space="preserve">Data Structures, Time complexity and Space Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Multiplication, Fast Fourier Transform and O-notation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming, Recursion and Brute force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The keys Mike, May, Ren, Nat, Rey, Carl, Nico, Bri, Joan, and Steph are inserted into an initially empty hash table of length 10 using open addressing with hash function h(k) = k mod 10 and linear probing. What key(s) is/are in index 7 in the hash table?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyze the given program below and indicate it’s time complexity.</t>
+    <t>Data Structures, Time complexity and Space Analysis</t>
+  </si>
+  <si>
+    <t>Matrix Multiplication, Fast Fourier Transform and O-notation</t>
+  </si>
+  <si>
+    <t>Dynamic Programming, Recursion and Brute force</t>
+  </si>
+  <si>
+    <t>The keys Mike, May, Ren, Nat, Rey, Carl, Nico, Bri, Joan, and Steph are inserted into an initially empty hash table of length 10 using open addressing with hash function h(k) = k mod 10 and linear probing. What key(s) is/are in index 7 in the hash table?</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Steph</t>
+  </si>
+  <si>
+    <t>Analyze the given program below and indicate it’s time complexity.</t>
   </si>
   <si>
     <t xml:space="preserve">O(n) </t>
   </si>
   <si>
-    <t xml:space="preserve">O(sqrt(n))</t>
+    <t>O(sqrt(n))</t>
   </si>
   <si>
     <t xml:space="preserve"> O(n^2)</t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item29_Image.PNG</t>
+    <t>/Images/AlgoD_Item29_Image.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Two robots are competing against each other on a sorting match. They have to sort these 10 items {football, baseball, golf ball, volleyball, bowling ball, soccer ball, tennis ball, billiard ball, ping pong,  basketball } from heaviest to lightest. Robot 1 will sort the items using merge sort and Robot 2, quick sort. Who will win the match and how many comparisons did the loser do? </t>
   </si>
   <si>
-    <t xml:space="preserve">Winner is Merge Sort and loser does 21 comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winner is Quick Sort and loser does 22 comparisons.</t>
+    <t>Winner is Merge Sort and loser does 21 comparisons.</t>
+  </si>
+  <si>
+    <t>Winner is Quick Sort and loser does 22 comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">Winner is Merge Sort and loser does 23 comparisons. </t>
@@ -886,10 +891,10 @@
     <t xml:space="preserve">Winner is Quick Sort and loser does 24 comparisons </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/AlgoD_Item30_Image.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intractability</t>
+    <t>/Images/AlgoD_Item30_Image.PNG</t>
+  </si>
+  <si>
+    <t>Intractability</t>
   </si>
   <si>
     <t xml:space="preserve"> How many possible solutions are there for a 9 Queen’s Puzzle? </t>
@@ -898,16 +903,16 @@
     <t xml:space="preserve">Which of the following positions for a queen on a 4 X 4 board is part of a solution of a 4 Queen’s Puzzle? </t>
   </si>
   <si>
-    <t xml:space="preserve">A queen positioned at row 2, column 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A queen positioned at row 3, column 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A queen positioned at row 1, column 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A queen positioned at row 4, column 3</t>
+    <t>A queen positioned at row 2, column 2</t>
+  </si>
+  <si>
+    <t>A queen positioned at row 3, column 1</t>
+  </si>
+  <si>
+    <t>A queen positioned at row 1, column 4</t>
+  </si>
+  <si>
+    <t>A queen positioned at row 4, column 3</t>
   </si>
   <si>
     <t xml:space="preserve">MEDIUM </t>
@@ -916,28 +921,28 @@
     <t xml:space="preserve">Suppose we’re given an Adjacency Matrix of Graph G (where 0 indicates that the vertex[column] is not connected to the vertex [row] and 1 indicates it is connected to the vertex) and we need to color its 6 vertices using only a maximum of 3 colors where no two adjacent vertices share the same color. What’s one way to color this graph in sequence? </t>
   </si>
   <si>
-    <t xml:space="preserve">Color 1, Color 1, Color 2, Color 1, Color 3, Color 3, Color 1, Color 2, Color 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color 1, Color 2, Color 1, Color 2, Color 1, Color 3, Color 1, Color 3, Color 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color 1, Color 2, Color 3, Color 1, Color 2, Color 1, Color 1, Color 3, Color 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color 1, Color 1, Color 2, Color 3, Color 2, Color 1, Color 1, Color 2, Color 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item3pic.PNG</t>
+    <t>Color 1, Color 1, Color 2, Color 1, Color 3, Color 3, Color 1, Color 2, Color 3</t>
+  </si>
+  <si>
+    <t>Color 1, Color 2, Color 1, Color 2, Color 1, Color 3, Color 1, Color 3, Color 2</t>
+  </si>
+  <si>
+    <t>Color 1, Color 2, Color 3, Color 1, Color 2, Color 1, Color 1, Color 3, Color 1</t>
+  </si>
+  <si>
+    <t>Color 1, Color 1, Color 2, Color 3, Color 2, Color 1, Color 1, Color 2, Color 3</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item3pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">One of the many applications for the graph coloring problem is solving a Sudoku puzzle where the vertices represents the squares of the grid and each number within the squares are connected by an edge to another number that lies within the same row, column or 2x2 grid and must be colored differently from each other. Suppose we have a 2 x 2 box that has characters 1 to 4, how many edges does this graph have? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item4pic.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a table for pairs of subjects that one or more students are taking together (colored in green), suppose that you are tasked to schedule exams so that there will be no possible conflicts between students taking the subjects.  What timeslots will be possible for scheduling student exams?</t>
+    <t>/Images/Intractability_item4pic.PNG</t>
+  </si>
+  <si>
+    <t>Given a table for pairs of subjects that one or more students are taking together (colored in green), suppose that you are tasked to schedule exams so that there will be no possible conflicts between students taking the subjects.  What timeslots will be possible for scheduling student exams?</t>
   </si>
   <si>
     <t xml:space="preserve">Timeslot B, C &amp; E    </t>
@@ -952,7 +957,7 @@
     <t xml:space="preserve">Timeslot A, C &amp; D    </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item5pic.PNG</t>
+    <t>/Images/Intractability_item5pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">What is the maximum clique given a graph with V vertices and E edges V = 8, Edges[][] = {{A,B},{A,C},{B,C},{B,F},{B,D},{C,D},{C,F},{D,E},{D,H},{E,F},{E,G},{E,H},{F,G},{G,H}}? </t>
@@ -961,7 +966,7 @@
     <t xml:space="preserve">On accessing a website, a CAPTCHA suddenly pops up and asks you to color this abstract image as few colors as possible in such a way that no shape of the same color shares the same border. It seems as though CAPTCHA’s way of verifying if you’re a human or not is getting a bit complicated but still, how many colors will you use? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item7pic.PNG</t>
+    <t>/Images/Intractability_item7pic.PNG</t>
   </si>
   <si>
     <r>
@@ -976,14 +981,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">V</t>
+      <t>V</t>
     </r>
     <r>
       <rPr>
@@ -997,14 +1002,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">E</t>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -1018,7 +1023,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1035,41 +1040,41 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">= 10, Edges[][] = {{0,1},{0,5},(0,6},{1,2},{1,7},{2,3},{2,5},{3,4},{3,8},{4,5},{4,9},{5,6},{5,9}{6,7},{6,9},{7,8},{8,9}?</t>
+      <t>= 10, Edges[][] = {{0,1},{0,5},(0,6},{1,2},{1,7},{2,3},{2,5},{3,4},{3,8},{4,5},{4,9},{5,6},{5,9}{6,7},{6,9},{7,8},{8,9}?</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Order of vertices: V0, V1, V2, V3, V4, V5, V9, V8, V7, V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order of vertices: V0, V6, V9, V4, V5, V2, V3, V8, V7, V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order of vertices: V0, V5, V4, V3, V2, V1, V7, V8, V9, V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order of vertices: V0, V1, V7, V6, V5, V2, V3, V8, V9, V4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item8pic.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given a layout of the building you’re trying to break in.  Suppose that it also has the possible locations where the school would put the CCTV cameras so that they have surveillances in each area using only a minimum number of cameras. On the map, the cameras are indicated in vertices and the edges represent the direction(s) the camera can face. Find out how many CCTV cameras you need to look out for.</t>
+    <t>Order of vertices: V0, V1, V2, V3, V4, V5, V9, V8, V7, V6</t>
+  </si>
+  <si>
+    <t>Order of vertices: V0, V6, V9, V4, V5, V2, V3, V8, V7, V1</t>
+  </si>
+  <si>
+    <t>Order of vertices: V0, V5, V4, V3, V2, V1, V7, V8, V9, V6</t>
+  </si>
+  <si>
+    <t>Order of vertices: V0, V1, V7, V6, V5, V2, V3, V8, V9, V4</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item8pic.PNG</t>
+  </si>
+  <si>
+    <t>You are given a layout of the building you’re trying to break in.  Suppose that it also has the possible locations where the school would put the CCTV cameras so that they have surveillances in each area using only a minimum number of cameras. On the map, the cameras are indicated in vertices and the edges represent the direction(s) the camera can face. Find out how many CCTV cameras you need to look out for.</t>
   </si>
   <si>
     <t xml:space="preserve">There are 8 CCTV Cameras installed in the building. </t>
   </si>
   <si>
-    <t xml:space="preserve">There are 5 CCTV Cameras installed in the building.</t>
+    <t>There are 5 CCTV Cameras installed in the building.</t>
   </si>
   <si>
     <t xml:space="preserve">There are 6 CCTV Cameras installed in the building. </t>
   </si>
   <si>
-    <t xml:space="preserve">There are 9 CCTV Cameras installed in the building.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item9pic.PNG</t>
+    <t>There are 9 CCTV Cameras installed in the building.</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item9pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">We’re given an algorithm for solving the vertex cover of a graph. Suppose our graph G with V vertices &amp; E edges V = 8, Edges[][], {{A,B},{A,J},{A,F},{B,J},{B,C},{C,I},{C,D},{D,I},{D,E},{E,F},{E,G},{F,G},{G,H},{H,I},{H,J}} 
@@ -1077,37 +1082,37 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">C = [B,J,I,D,F,G]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C = [A,B,I,C,E,D,G,H]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C = [A,B,I,C,E,D,F,G,H,J]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C = [A,B,E,D,F,G,H,J]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item10pic.PNG</t>
+    <t>C = [B,J,I,D,F,G]</t>
+  </si>
+  <si>
+    <t>C = [A,B,I,C,E,D,G,H]</t>
+  </si>
+  <si>
+    <t>C = [A,B,I,C,E,D,F,G,H,J]</t>
+  </si>
+  <si>
+    <t>C = [A,B,E,D,F,G,H,J]</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item10pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Give a truth assignment that satisfies the given Boolean expression. </t>
   </si>
   <si>
-    <t xml:space="preserve">x1 = x4 = F, x2 = x3 = T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1 = x2 = x3= x4 = T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1 = x2 = F , x3= x4 = T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1 = x2 = x4 = T, x3 = F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item11pic.PNG</t>
+    <t>x1 = x4 = F, x2 = x3 = T</t>
+  </si>
+  <si>
+    <t>x1 = x2 = x3= x4 = T</t>
+  </si>
+  <si>
+    <t>x1 = x2 = F , x3= x4 = T</t>
+  </si>
+  <si>
+    <t>x1 = x2 = x4 = T, x3 = F</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item11pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Transcribe this Boolean circuit as a Boolean formula. </t>
@@ -1125,58 +1130,58 @@
     <t xml:space="preserve">(y1 = x1) ʌ (y2 = x3 v x4)  ʌ  (y3 = y1 v x5)  ʌ  (y4 = x3 v y4)  v  z </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item12pic.PNG</t>
+    <t>/Images/Intractability_item12pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following is the satisfiable 3CNF formula that represents the graph of this maximum independent set? </t>
   </si>
   <si>
-    <t xml:space="preserve">(x3 v ¬x3 v ¬x3) ʌ (¬x1 v x1 v x1) ʌ (x2 v ¬x2 v ¬x2)  ʌ (x4 v x4 v ¬x4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(x1 v ¬x1 v x3) ʌ (¬x4 v x1 v x4) ʌ (x3 v ¬x2 v x2)  ʌ (x3 v ¬x3 v ¬x4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(x1 v ¬x3 v ¬x4) ʌ (¬x1 v ¬x2 v x3) ʌ (x2 v ¬x3 v x4)  ʌ (x1 v ¬x2 v x4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(x1 v ¬x1 v ¬x3) ʌ (¬x2 v ¬x3 v x4) ʌ (x1 v ¬x2 v x4)  ʌ (x2 v x3 v ¬x4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item13pic.PNG</t>
+    <t>(x3 v ¬x3 v ¬x3) ʌ (¬x1 v x1 v x1) ʌ (x2 v ¬x2 v ¬x2)  ʌ (x4 v x4 v ¬x4)</t>
+  </si>
+  <si>
+    <t>(x1 v ¬x1 v x3) ʌ (¬x4 v x1 v x4) ʌ (x3 v ¬x2 v x2)  ʌ (x3 v ¬x3 v ¬x4)</t>
+  </si>
+  <si>
+    <t>(x1 v ¬x3 v ¬x4) ʌ (¬x1 v ¬x2 v x3) ʌ (x2 v ¬x3 v x4)  ʌ (x1 v ¬x2 v x4)</t>
+  </si>
+  <si>
+    <t>(x1 v ¬x1 v ¬x3) ʌ (¬x2 v ¬x3 v x4) ʌ (x1 v ¬x2 v x4)  ʌ (x2 v x3 v ¬x4)</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item13pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">What satisfiable 3CNF formula is the given 3-colorable graph derived from?  </t>
   </si>
   <si>
-    <t xml:space="preserve">(A v B v C) ʌ (B v C v D) ʌ (A v ¬B v ¬D)  ʌ (¬A v B v C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(A v ¬B v C) ʌ (B v C v ¬D) ʌ (A v ¬C v D)  ʌ (¬A v B v ¬D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(A v ¬A v B) ʌ (B v ¬B v C) ʌ (C v ¬C v D)  ʌ (¬C v D v ¬D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(A v B v ¬C) ʌ (¬B v C v D) ʌ (B v ¬C v ¬D) ʌ (¬A v ¬B v C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item14pic.PNG</t>
+    <t>(A v B v C) ʌ (B v C v D) ʌ (A v ¬B v ¬D)  ʌ (¬A v B v C)</t>
+  </si>
+  <si>
+    <t>(A v ¬B v C) ʌ (B v C v ¬D) ʌ (A v ¬C v D)  ʌ (¬A v B v ¬D)</t>
+  </si>
+  <si>
+    <t>(A v ¬A v B) ʌ (B v ¬B v C) ʌ (C v ¬C v D)  ʌ (¬C v D v ¬D)</t>
+  </si>
+  <si>
+    <t>(A v B v ¬C) ʌ (¬B v C v D) ʌ (B v ¬C v ¬D) ʌ (¬A v ¬B v C)</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item14pic.PNG</t>
   </si>
   <si>
     <t xml:space="preserve">Given a graph of a maximum independent set, how many vertices will you need to find the minimum vertex cover? </t>
   </si>
   <si>
-    <t xml:space="preserve">/Images/Intractability_item15pic.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why does the question of whether P = NP matters?</t>
+    <t>/Images/Intractability_item15pic.PNG</t>
+  </si>
+  <si>
+    <t>Why does the question of whether P = NP matters?</t>
   </si>
   <si>
     <t xml:space="preserve">It matters because of the million dollar reward and fame you’ll attain when you correctly prove it. </t>
   </si>
   <si>
-    <t xml:space="preserve">It hasn’t been proven or disproven for nearly 5 decades now, it matters because of man’s quest for solving the unknown.</t>
+    <t>It hasn’t been proven or disproven for nearly 5 decades now, it matters because of man’s quest for solving the unknown.</t>
   </si>
   <si>
     <t xml:space="preserve">If P = NP then we can easily solve seemingly hard problems. </t>
@@ -1197,22 +1202,22 @@
     <t xml:space="preserve">Four Color Theorem </t>
   </si>
   <si>
-    <t xml:space="preserve">Brook’s Theorem</t>
+    <t>Brook’s Theorem</t>
   </si>
   <si>
     <t xml:space="preserve">A Sudoku puzzle has been shown to be ______? </t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP-hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coNP</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>NP-hard</t>
+  </si>
+  <si>
+    <t>coNP</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following is not an intractable problem? </t>
@@ -1221,70 +1226,70 @@
     <t xml:space="preserve">Tower of Hanoi </t>
   </si>
   <si>
-    <t xml:space="preserve">Hamilton Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching an unordered list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
+    <t>Hamilton Path</t>
+  </si>
+  <si>
+    <t>Searching an unordered list</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
   </si>
   <si>
     <t xml:space="preserve">A _____ is a problem whose output is a single Boolean value. </t>
   </si>
   <si>
-    <t xml:space="preserve">Turing reduction</t>
+    <t>Turing reduction</t>
   </si>
   <si>
     <t xml:space="preserve">Decision problem </t>
   </si>
   <si>
-    <t xml:space="preserve">Graph coloring problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset sum problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following has been proven?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP ≠ EXP</t>
+    <t>Graph coloring problem</t>
+  </si>
+  <si>
+    <t>Subset sum problem</t>
+  </si>
+  <si>
+    <t>Which of the following has been proven?</t>
+  </si>
+  <si>
+    <t>NP ≠ EXP</t>
   </si>
   <si>
     <t xml:space="preserve">P ≠ EXP </t>
   </si>
   <si>
-    <t xml:space="preserve">NP ≠ co-NP</t>
+    <t>NP ≠ co-NP</t>
   </si>
   <si>
     <t xml:space="preserve">P = NP </t>
   </si>
   <si>
-    <t xml:space="preserve">Which of the following order of these complexity classes is correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P⊆NP⊆PSPACE⊆EXP⊆NEXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P⊆NP⊆EXP⊆NEXP⊆PSPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP⊆P⊆NEXP⊆EXP⊆PSPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P⊆NP⊆PSPACE⊆NEXP⊆EXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of the following is NOT part of  the general pattern in polynomial-time reductions?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform an arbitrary for y into a certificate of y.</t>
+    <t>Which of the following order of these complexity classes is correct?</t>
+  </si>
+  <si>
+    <t>P⊆NP⊆PSPACE⊆EXP⊆NEXP</t>
+  </si>
+  <si>
+    <t>P⊆NP⊆EXP⊆NEXP⊆PSPACE</t>
+  </si>
+  <si>
+    <t>NP⊆P⊆NEXP⊆EXP⊆PSPACE</t>
+  </si>
+  <si>
+    <t>P⊆NP⊆PSPACE⊆NEXP⊆EXP</t>
+  </si>
+  <si>
+    <t>Which of the following is NOT part of  the general pattern in polynomial-time reductions?</t>
+  </si>
+  <si>
+    <t>Transform an arbitrary for y into a certificate of y.</t>
   </si>
   <si>
     <t xml:space="preserve">Prove that if x is a “good” instance of X, then y is a “good” instance of Y. </t>
   </si>
   <si>
-    <t xml:space="preserve">Prove that if y is a “good” instance of Y, then x is a “good” instance of X.</t>
+    <t>Prove that if y is a “good” instance of Y, then x is a “good” instance of X.</t>
   </si>
   <si>
     <t xml:space="preserve">Describe a polynomial-time algorithm to transform an arbitrary instance x of X into a special instance y of Y.  </t>
@@ -1308,7 +1313,7 @@
     <t xml:space="preserve">How will you classify if a problem is NP hard? </t>
   </si>
   <si>
-    <t xml:space="preserve">If it is impossible to find an efficient algorithm to solve the problem.</t>
+    <t>If it is impossible to find an efficient algorithm to solve the problem.</t>
   </si>
   <si>
     <t xml:space="preserve">If the problem is hard to solve but its solution can be easily verified.  </t>
@@ -1317,43 +1322,43 @@
     <t xml:space="preserve">If the problem is both NP-complete and NP-easy. </t>
   </si>
   <si>
-    <t xml:space="preserve">If you can easily reduce a known NP-hard problem to the current problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When is a problem considered NP-complete?</t>
+    <t>If you can easily reduce a known NP-hard problem to the current problem.</t>
+  </si>
+  <si>
+    <t>When is a problem considered NP-complete?</t>
   </si>
   <si>
     <t xml:space="preserve">If there is a polynomial-time algorithm for every problem in NP. </t>
   </si>
   <si>
-    <t xml:space="preserve">If a problem is both NP-hard and NP-easy.</t>
+    <t>If a problem is both NP-hard and NP-easy.</t>
   </si>
   <si>
     <t xml:space="preserve">If every decision problem in P is also in NP. </t>
   </si>
   <si>
-    <t xml:space="preserve">If the solution to the problem can be verified in polynomial-time.</t>
+    <t>If the solution to the problem can be verified in polynomial-time.</t>
   </si>
   <si>
     <t xml:space="preserve">If the problem asks to find a small subset satisfying some constraints, what best suitable NP-complete problem will you reduce this from? </t>
   </si>
   <si>
-    <t xml:space="preserve">3Color</t>
+    <t>3Color</t>
   </si>
   <si>
     <t xml:space="preserve">CircuitSat </t>
   </si>
   <si>
-    <t xml:space="preserve">MinVertexCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxClique</t>
+    <t>MinVertexCover</t>
+  </si>
+  <si>
+    <t>MaxClique</t>
   </si>
   <si>
     <t xml:space="preserve">What will NOT happen if you found a polynomial-time algorithm for an NP-complete problem. </t>
   </si>
   <si>
-    <t xml:space="preserve">You will gain fame and fortune.</t>
+    <t>You will gain fame and fortune.</t>
   </si>
   <si>
     <t xml:space="preserve">All your private information on the internet will be easily accessed.   </t>
@@ -1371,19 +1376,19 @@
     <t xml:space="preserve">P⊆NP,P⊆coNP,NP≠coNP,NPcomplete ⊆NP &amp; NPhard ⊆NP </t>
   </si>
   <si>
-    <t xml:space="preserve">P ≠coNP,P⊆NP,coNP⊆NP,NPcomplete ⊆NP &amp; NPhard ⊆coNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coNP⊆NP,P≠NP,NP⊆NPhard &amp; NPhard ⊆Npcomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P⊆NP,P⊆coNP,NP≠coNP,NPcomplete ⊆NP &amp; NPcomplete ⊆Nphard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/Intractability_item29pic.PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which of these problems do not have a polynomial-time algorithm?</t>
+    <t>P ≠coNP,P⊆NP,coNP⊆NP,NPcomplete ⊆NP &amp; NPhard ⊆coNP</t>
+  </si>
+  <si>
+    <t>coNP⊆NP,P≠NP,NP⊆NPhard &amp; NPhard ⊆Npcomplete</t>
+  </si>
+  <si>
+    <t>P⊆NP,P⊆coNP,NP≠coNP,NPcomplete ⊆NP &amp; NPcomplete ⊆Nphard</t>
+  </si>
+  <si>
+    <t>/Images/Intractability_item29pic.PNG</t>
+  </si>
+  <si>
+    <t>Which of these problems do not have a polynomial-time algorithm?</t>
   </si>
   <si>
     <t xml:space="preserve">N x N Queen’s puzzle </t>
@@ -1392,336 +1397,929 @@
     <t xml:space="preserve">All NP-complete problems </t>
   </si>
   <si>
-    <t xml:space="preserve">Travelling salesman problem</t>
+    <t>Travelling salesman problem</t>
   </si>
   <si>
     <t xml:space="preserve">None of the above. </t>
   </si>
   <si>
-    <t xml:space="preserve">You are given an integer array with the elements 72, 15, 14, 86, 90, 1, 91, 61, 33, 87 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the second recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15, 72, 14, 86, 1, 90, 61, 91, 33, 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 14, 15, 72, 86, 33, 61, 87, 90, 91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 14, 15, 33, 61, 72, 86, 87, 90, 91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72, 15, 14, 86, 90, 1, 91, 61, 33, 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 13, 64, 79, 4, 17, 49, 80, 55 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the third recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4, 13, 17, 49, 55, 64, 79, 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 64, 79, 4, 17, 49, 80, 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 64, 4, 79, 17, 49, 55, 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4, 13, 64, 79, 17, 49, 55, 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 85, 30, 63, 1, 7, 100, 40, 76 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the first recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30, 85, 1, 63, 7, 100, 40, 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 30, 63, 85, 7, 40, 76, 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85, 30, 63, 1, 7, 100, 40, 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 7, 30, 40, 63, 76, 85, 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 35, 34, 53, 63, 5, 93, 62, 46 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the fourth recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35, 34, 53, 63, 5, 93, 62, 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5, 34, 35, 46, 53, 62, 63, 93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34, 35, 53, 63, 5, 46, 62, 93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34, 35, 53, 63, 5, 93, 46, 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 72, 15, 14, 86, 90, 1, 91, 61 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the last element as its pivot?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86, 14, 1, 61, 90, 72, 91, 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15, 14, 1, 61, 90, 72, 91, 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15, 14, 90, 61, 1, 72, 91, 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72, 15, 14, 86, 90, 1, 91, 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 13, 64, 79, 4, 17, 49, 80, 55 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the first element as its pivot?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4, 13, 79, 55, 17, 49, 80, 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 4, 79, 55, 17, 49, 80, 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4, 17, 79, 55, 13, 49, 80, 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 85, 30, 63, 1, 7, 100, 40, 76, 27 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the middle element as its pivot?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85, 30, 63, 1, 7, 100, 40, 76, 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7, 1, 63, 85, 27, 100, 40, 76, 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27, 7, 63, 85, 1, 100, 40, 76, 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 7, 63, 85, 27, 100, 40, 76, 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 35, 34, 53, 63, 5, 93, 62, 46, 3 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the median of three as its pivot?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34, 5, 53, 63, 35, 93, 62, 46, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35, 34, 53, 63, 5, 93, 62, 46, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, 5, 53, 63, 35, 93, 62, 46, 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, 53, 5, 63, 35, 93, 62, 46, 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 659, 446, 171, 433, 871, 146, 332, 369 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the first digit from the right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171, 871, 332, 433, 446, 146, 659, 369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171, 871, 433, 332, 446, 146, 659, 369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659, 446, 171, 433, 871, 146, 332, 369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">369, 171, 446, 433, 871, 146, 332, 659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 197, 686, 772, 228, 465, 836, 635, 110 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the second digit from the right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197, 686, 772, 228, 465, 836, 635, 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110, 228, 635, 836, 465, 772, 686, 197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110, 197, 228, 465, 635, 686, 772, 836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110, 772, 465, 635, 686, 836, 197, 228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 304, 532, 933, 293, 226, 128, 749, 707 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the zeroth digit from the right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707, 532, 933, 293, 226, 128, 749, 304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707, 749, 933, 293, 226, 128, 532, 304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304, 532, 933, 293, 226, 128, 749, 707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707, 749, 933, 226, 293, 128, 532, 304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are given an integer array with the elements 678, 365, 366, 980, 375, 754, 416, 392 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the zeroth digit from the right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">678, 365, 366, 980, 375, 754, 416, 392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">980, 392, 754, 365, 375, 366, 416, 678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">416, 754, 365, 366, 375, 648, 980, 392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365, 366, 375, 392, 416, 648, 754, 980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following image contains a part of the recursive implementation of the Merge Sort Algorithm, which of the choices is the correct code in implementing Merge functionality of Merge Sort? The code in the choices is to be inserted into *insert code here*.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int k = lo; k &lt;= hi; k++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int k = lo; k &lt; hi; k++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int k = lo; k &lt;= hi + 1; k++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int k = lo; k &lt; hi + 1; k++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/SA1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following image contains a part of the recursive implementation of the Quick Sort Algorithm, which of the choices is the correct code in implementing the Partition functionality (Sorting using a pivot) of Quick Sort? The code in the choices is to be inserted into *insert code here*.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i + 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arr[i + 1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arr[i]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/SA2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following image contains the main part of the implementation of the Radix Sort Algorithm, which of the choices is the correct code in implementing the algorithm? The code in the choices is to be inserted into *insert code here*.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max1 / exp &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp * max1 / max1 &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max1 + exp / max1 &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp / max1 &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/SA3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metaheuristic Algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following image contains code that is part of the implementation of the Firefly Algorithm written in Python. Which part in the general procedure of swarm intelligence algorithms is the shown code?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population Initialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate all initialized individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproduce individuals to form a new population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate the fitness of each solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update solutions in the archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select solutions with better fitness values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following image contains code that is part of the implementation of the Firefly Algorithm written in Java. Which part in the general procedure of swarm intelligence algorithms is the shown code?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Images/MA12.png</t>
+    <t>You are given an integer array with the elements 72, 15, 14, 86, 90, 1, 91, 61, 33, 87 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the second recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t>15, 72, 14, 86, 1, 90, 61, 91, 33, 87</t>
+  </si>
+  <si>
+    <t>1, 14, 15, 72, 86, 33, 61, 87, 90, 91</t>
+  </si>
+  <si>
+    <t>1, 14, 15, 33, 61, 72, 86, 87, 90, 91</t>
+  </si>
+  <si>
+    <t>72, 15, 14, 86, 90, 1, 91, 61, 33, 87</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 13, 64, 79, 4, 17, 49, 80, 55 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the third recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t>4, 13, 17, 49, 55, 64, 79, 80</t>
+  </si>
+  <si>
+    <t>13, 64, 79, 4, 17, 49, 80, 55</t>
+  </si>
+  <si>
+    <t>13, 64, 4, 79, 17, 49, 55, 80</t>
+  </si>
+  <si>
+    <t>4, 13, 64, 79, 17, 49, 55, 80</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 85, 30, 63, 1, 7, 100, 40, 76 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the first recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t>30, 85, 1, 63, 7, 100, 40, 76</t>
+  </si>
+  <si>
+    <t>1, 30, 63, 85, 7, 40, 76, 100</t>
+  </si>
+  <si>
+    <t>85, 30, 63, 1, 7, 100, 40, 76</t>
+  </si>
+  <si>
+    <t>1, 7, 30, 40, 63, 76, 85, 100</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 35, 34, 53, 63, 5, 93, 62, 46 sorted in this specific order. What would the elements of the said array look like if the array was first separated into smaller arrays with one element each and merge-sorted up to the fourth recursion stack? The first recursion stack being the smaller arrays with one element each.</t>
+  </si>
+  <si>
+    <t>35, 34, 53, 63, 5, 93, 62, 46</t>
+  </si>
+  <si>
+    <t>5, 34, 35, 46, 53, 62, 63, 93</t>
+  </si>
+  <si>
+    <t>34, 35, 53, 63, 5, 46, 62, 93</t>
+  </si>
+  <si>
+    <t>34, 35, 53, 63, 5, 93, 46, 62</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 72, 15, 14, 86, 90, 1, 91, 61 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the last element as its pivot?</t>
+  </si>
+  <si>
+    <t>86, 14, 1, 61, 90, 72, 91, 15</t>
+  </si>
+  <si>
+    <t>15, 14, 1, 61, 90, 72, 91, 86</t>
+  </si>
+  <si>
+    <t>15, 14, 90, 61, 1, 72, 91, 86</t>
+  </si>
+  <si>
+    <t>72, 15, 14, 86, 90, 1, 91, 61</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 13, 64, 79, 4, 17, 49, 80, 55 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the first element as its pivot?</t>
+  </si>
+  <si>
+    <t>4, 13, 79, 55, 17, 49, 80, 64</t>
+  </si>
+  <si>
+    <t>13, 4, 79, 55, 17, 49, 80, 64</t>
+  </si>
+  <si>
+    <t>4, 17, 79, 55, 13, 49, 80, 64</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 85, 30, 63, 1, 7, 100, 40, 76, 27 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the middle element as its pivot?</t>
+  </si>
+  <si>
+    <t>85, 30, 63, 1, 7, 100, 40, 76, 27</t>
+  </si>
+  <si>
+    <t>7, 1, 63, 85, 27, 100, 40, 76, 30</t>
+  </si>
+  <si>
+    <t>27, 7, 63, 85, 1, 100, 40, 76, 30</t>
+  </si>
+  <si>
+    <t>1, 7, 63, 85, 27, 100, 40, 76, 30</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 35, 34, 53, 63, 5, 93, 62, 46, 3 sorted in this specific order. What would the elements of the said array look like if the array was sorted using the median of three as its pivot?</t>
+  </si>
+  <si>
+    <t>34, 5, 53, 63, 35, 93, 62, 46, 3</t>
+  </si>
+  <si>
+    <t>35, 34, 53, 63, 5, 93, 62, 46, 3</t>
+  </si>
+  <si>
+    <t>3, 5, 53, 63, 35, 93, 62, 46, 34</t>
+  </si>
+  <si>
+    <t>3, 53, 5, 63, 35, 93, 62, 46, 34</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 659, 446, 171, 433, 871, 146, 332, 369 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the first digit from the right?</t>
+  </si>
+  <si>
+    <t>171, 871, 332, 433, 446, 146, 659, 369</t>
+  </si>
+  <si>
+    <t>171, 871, 433, 332, 446, 146, 659, 369</t>
+  </si>
+  <si>
+    <t>659, 446, 171, 433, 871, 146, 332, 369</t>
+  </si>
+  <si>
+    <t>369, 171, 446, 433, 871, 146, 332, 659</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 197, 686, 772, 228, 465, 836, 635, 110 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the second digit from the right?</t>
+  </si>
+  <si>
+    <t>197, 686, 772, 228, 465, 836, 635, 110</t>
+  </si>
+  <si>
+    <t>110, 228, 635, 836, 465, 772, 686, 197</t>
+  </si>
+  <si>
+    <t>110, 197, 228, 465, 635, 686, 772, 836</t>
+  </si>
+  <si>
+    <t>110, 772, 465, 635, 686, 836, 197, 228</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 304, 532, 933, 293, 226, 128, 749, 707 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the zeroth digit from the right?</t>
+  </si>
+  <si>
+    <t>707, 532, 933, 293, 226, 128, 749, 304</t>
+  </si>
+  <si>
+    <t>707, 749, 933, 293, 226, 128, 532, 304</t>
+  </si>
+  <si>
+    <t>304, 532, 933, 293, 226, 128, 749, 707</t>
+  </si>
+  <si>
+    <t>707, 749, 933, 226, 293, 128, 532, 304</t>
+  </si>
+  <si>
+    <t>You are given an integer array with the elements 678, 365, 366, 980, 375, 754, 416, 392 sorted in this specific order. What would the elements of the said array look like if the array was sorted using radix sort and the sorting was terminated after sorting the array using the zeroth digit from the right?</t>
+  </si>
+  <si>
+    <t>678, 365, 366, 980, 375, 754, 416, 392</t>
+  </si>
+  <si>
+    <t>980, 392, 754, 365, 375, 366, 416, 678</t>
+  </si>
+  <si>
+    <t>416, 754, 365, 366, 375, 648, 980, 392</t>
+  </si>
+  <si>
+    <t>365, 366, 375, 392, 416, 648, 754, 980</t>
+  </si>
+  <si>
+    <t>The following image contains a part of the recursive implementation of the Merge Sort Algorithm, which of the choices is the correct code in implementing Merge functionality of Merge Sort? The code in the choices is to be inserted into *insert code here*.</t>
+  </si>
+  <si>
+    <t>int k = lo; k &lt;= hi; k++</t>
+  </si>
+  <si>
+    <t>int k = lo; k &lt; hi; k++</t>
+  </si>
+  <si>
+    <t>int k = lo; k &lt;= hi + 1; k++</t>
+  </si>
+  <si>
+    <t>int k = lo; k &lt; hi + 1; k++</t>
+  </si>
+  <si>
+    <t>/Images/SA1.png</t>
+  </si>
+  <si>
+    <t>The following image contains a part of the recursive implementation of the Quick Sort Algorithm, which of the choices is the correct code in implementing the Partition functionality (Sorting using a pivot) of Quick Sort? The code in the choices is to be inserted into *insert code here*.</t>
+  </si>
+  <si>
+    <t>i + 1</t>
+  </si>
+  <si>
+    <t>arr[i + 1]</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>arr[i]</t>
+  </si>
+  <si>
+    <t>/Images/SA2.png</t>
+  </si>
+  <si>
+    <t>The following image contains the main part of the implementation of the Radix Sort Algorithm, which of the choices is the correct code in implementing the algorithm? The code in the choices is to be inserted into *insert code here*.</t>
+  </si>
+  <si>
+    <t>max1 / exp &gt; 0</t>
+  </si>
+  <si>
+    <t>exp * max1 / max1 &gt; 0</t>
+  </si>
+  <si>
+    <t>max1 + exp / max1 &gt; 0</t>
+  </si>
+  <si>
+    <t>exp / max1 &gt; 0</t>
+  </si>
+  <si>
+    <t>/Images/SA3.png</t>
+  </si>
+  <si>
+    <t>Metaheuristic Algorithms</t>
+  </si>
+  <si>
+    <t>The following image contains code that is part of the implementation of the Firefly Algorithm written in Python. Which part in the general procedure of swarm intelligence algorithms is the shown code?</t>
+  </si>
+  <si>
+    <t>Population Initialization</t>
+  </si>
+  <si>
+    <t>Evaluate all initialized individuals</t>
+  </si>
+  <si>
+    <t>Reproduce individuals to form a new population</t>
+  </si>
+  <si>
+    <t>Evaluate the fitness of each solution</t>
+  </si>
+  <si>
+    <t>/Images/MA1.png</t>
+  </si>
+  <si>
+    <t>/Images/MA2.png</t>
+  </si>
+  <si>
+    <t>Update solutions in the archive</t>
+  </si>
+  <si>
+    <t>Select solutions with better fitness values</t>
+  </si>
+  <si>
+    <t>/Images/MA3.png</t>
+  </si>
+  <si>
+    <t>/Images/MA4.png</t>
+  </si>
+  <si>
+    <t>/Images/MA5.png</t>
+  </si>
+  <si>
+    <t>/Images/MA6.png</t>
+  </si>
+  <si>
+    <t>The following image contains code that is part of the implementation of the Firefly Algorithm written in Java. Which part in the general procedure of swarm intelligence algorithms is the shown code?</t>
+  </si>
+  <si>
+    <t>/Images/MA7.png</t>
+  </si>
+  <si>
+    <t>/Images/MA8.png</t>
+  </si>
+  <si>
+    <t>/Images/MA9.png</t>
+  </si>
+  <si>
+    <t>/Images/MA10.png</t>
+  </si>
+  <si>
+    <t>/Images/MA11.png</t>
+  </si>
+  <si>
+    <t>/Images/MA12.png</t>
+  </si>
+  <si>
+    <t>/Images/SA6.png</t>
+  </si>
+  <si>
+    <t>/Images/SA7.png</t>
+  </si>
+  <si>
+    <t>/Images/SA8.png</t>
+  </si>
+  <si>
+    <r>
+      <t>This would return a list of all integers j such that (i, j) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>∈ E. </t>
+    </r>
+  </si>
+  <si>
+    <t>addEdge</t>
+  </si>
+  <si>
+    <r>
+      <t>outEdges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>inEdges </t>
+  </si>
+  <si>
+    <t>hasEdges </t>
+  </si>
+  <si>
+    <t>Which of the following cannot be represented in graph theory? </t>
+  </si>
+  <si>
+    <t>Sudoku </t>
+  </si>
+  <si>
+    <t>Class Schedule </t>
+  </si>
+  <si>
+    <t>Bridges </t>
+  </si>
+  <si>
+    <t>None of the Above </t>
+  </si>
+  <si>
+    <t>If a simple graph were to be represented in an adjacency matrix, how would it be shown? </t>
+  </si>
+  <si>
+    <t>[[0,1,0], [0,0,1], [1,0,0]] </t>
+  </si>
+  <si>
+    <t>[[0,1,0], [0,1,1], [1,0,0]] </t>
+  </si>
+  <si>
+    <t>[[1,0,0], [0,1,0], [0,0,1]] </t>
+  </si>
+  <si>
+    <t>[[1,1,0], [0,1,0], [0,0,1]] </t>
+  </si>
+  <si>
+    <t>Graph N is a complete graph with 9 vertices, how many edges does it have? </t>
+  </si>
+  <si>
+    <t>36 </t>
+  </si>
+  <si>
+    <t>18 </t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>9 </t>
+  </si>
+  <si>
+    <t>How long would it take to calculate the number of edges in a graph using an adjacency matrix? </t>
+  </si>
+  <si>
+    <r>
+      <t>O(E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>) </t>
+    </r>
+  </si>
+  <si>
+    <t>O(V) </t>
+  </si>
+  <si>
+    <r>
+      <t>O(V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>) </t>
+    </r>
+  </si>
+  <si>
+    <t>O(E) </t>
+  </si>
+  <si>
+    <t>One column in this adjacency list is incorrect. Find it. </t>
+  </si>
+  <si>
+    <t>0 </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>1 </t>
+  </si>
+  <si>
+    <t>/Images/GT10.png</t>
+  </si>
+  <si>
+    <t>Breadth Search Algorithm can be applied in both graphs and trees but there is a difference. What is it? </t>
+  </si>
+  <si>
+    <t>Algorithm for graphs has to ensure that it does not add the same vertex to a queue more than once </t>
+  </si>
+  <si>
+    <t>Algorithm for graphs must ensure that it does not add the same vertex to another vertex more than once </t>
+  </si>
+  <si>
+    <t>Algorithm for trees must ensure that it does not add the same vertex to another vertex more than once </t>
+  </si>
+  <si>
+    <t>Algorithm for trees has to ensure that it does not add the same vertex to a queue more than once </t>
+  </si>
+  <si>
+    <t>According to the reference book: Open Data Structures by Morin, the auxiliary boolean array that tracks which vertices have already been discovered is called: </t>
+  </si>
+  <si>
+    <t>Visited </t>
+  </si>
+  <si>
+    <t>Identified </t>
+  </si>
+  <si>
+    <t>Seen </t>
+  </si>
+  <si>
+    <t>Marked </t>
+  </si>
+  <si>
+    <t>With “E” as the starting vertex, what would be the order of vertices if we apply Breadth First Search on this graph: </t>
+  </si>
+  <si>
+    <t>EVQSMA </t>
+  </si>
+  <si>
+    <t>EVAQMS </t>
+  </si>
+  <si>
+    <t>EAMVQS </t>
+  </si>
+  <si>
+    <t>EVMASQ </t>
+  </si>
+  <si>
+    <t>/Images/GT11.png</t>
+  </si>
+  <si>
+    <t>With “E” as the starting vertex, what would be the order of vertices if we apply Depth First Search on this graph: </t>
+  </si>
+  <si>
+    <t>/Images/GT12.png</t>
+  </si>
+  <si>
+    <t>The edges of an undirected graph are as follows: [[0,1], [0,2], [0,3], [0,4], [2,7], [2,8], [3,5], [3,6], [5,9], [5,10]]. Which vertices can be the root in building a tree of a minimum height? </t>
+  </si>
+  <si>
+    <t>[0,2] </t>
+  </si>
+  <si>
+    <t>[0,3]</t>
+  </si>
+  <si>
+    <t>[2,3] </t>
+  </si>
+  <si>
+    <t>[2,5] </t>
+  </si>
+  <si>
+    <t>A war has ended after 10 years of battle. 342 soldiers survived on both sides and has agreed upon a truce and shook hands. Is it possible for every soldier on one side to shake hands with 5 people on the other? What about with 4? </t>
+  </si>
+  <si>
+    <t>Yes, No </t>
+  </si>
+  <si>
+    <t>No, No </t>
+  </si>
+  <si>
+    <t>No, Yes </t>
+  </si>
+  <si>
+    <t>Yes, Yes</t>
+  </si>
+  <si>
+    <t>Stephen is a computer science student that is taking up 8 courses. The following courses have their own prerequisites. Will he be able to finish the courses? </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Probably</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>/Images/GT13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you add the sum of the degrees of vertices from each of the connected components in the undirected graph: [[0,1], [3,2], [2,4], [10,11], [9,12], [7,6], [5,2], [9,10]], what would the answer be? </t>
+  </si>
+  <si>
+    <t>May is a wedding planner that has to make seating arrangements for her client’s wedding. What is the minimum number of tables needed in order to accommodate the guests?  The bride and groom provided a guest list. They also asked some of them to bring along at most 3 friends and/or family at the wedding. Few days later, the couple told the planner that some of the guests invited had conflicts or are not comfortable with the others and told their friends to not sit those people. (Note: Those marked with “X” are the ones that have problems sitting with one another). </t>
+  </si>
+  <si>
+    <t>/Images/GT14.png</t>
+  </si>
+  <si>
+    <t>Search Algorithms</t>
+  </si>
+  <si>
+    <t>Which of these is not considered as a searching algorithm? </t>
+  </si>
+  <si>
+    <t>Hash Tables</t>
+  </si>
+  <si>
+    <t>Binary Tree Search</t>
+  </si>
+  <si>
+    <t>What is the best-case scenario of a linear search algorithm?</t>
+  </si>
+  <si>
+    <t>The element is the first one in the array. </t>
+  </si>
+  <si>
+    <t>The element is not in the array. </t>
+  </si>
+  <si>
+    <t>The element is the last thing on the array. </t>
+  </si>
+  <si>
+    <t>Both B and C. </t>
+  </si>
+  <si>
+    <t>What is the worst-case scenario of a linear search algorithm? </t>
+  </si>
+  <si>
+    <t>In the following list, what is the maximum sum that can be made? </t>
+  </si>
+  <si>
+    <t>The “7” element will never be found in the following list if binary search is applied. Which one of these is the main cause? </t>
+  </si>
+  <si>
+    <t>There does not exist a middle element </t>
+  </si>
+  <si>
+    <t>The array is not sorted </t>
+  </si>
+  <si>
+    <t>The element does not exist in the array </t>
+  </si>
+  <si>
+    <t>The element is less than the value of the middle element </t>
+  </si>
+  <si>
+    <t>If the binary search algorithm is applied on a 21-item sorted array, how many successful searches, by which the item is found, are required on average? </t>
+  </si>
+  <si>
+    <t>If the binary search algorithm is applied on a 17-item sorted array, how many successful searches, by which the item is found, are required on average? </t>
+  </si>
+  <si>
+    <t>What is the length of the largest substring where the number of 1’s is more than the number of 0’s in the string: 0110010011001100? </t>
+  </si>
+  <si>
+    <t>Finding the location of a specific pattern within a larger body of text is called </t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>String Searching</t>
+  </si>
+  <si>
+    <t>Merging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following visualization is an example of: </t>
+  </si>
+  <si>
+    <t>Knutth-Morris-Pratt </t>
+  </si>
+  <si>
+    <t>4 groups of people wanted to travel together to the beach before school starts but the terminal has only 3 buses left for travel. How long would it take for all the people to go from the terminal to the beach? Note that people from each group wanted to travel together. It also takes 1 unit of time for each bus to go from the terminal to the beach and back.  </t>
+  </si>
+  <si>
+    <t>/Images/SA5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you make a palindromic substring when you rearrange every character from the following ranges in this string? 
+swimatyourownriskwastakenasachallengeforthegroupofkansascitycollegestudents. [25, 27], [63, 67] </t>
+  </si>
+  <si>
+    <t>Yes, No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Yes </t>
+  </si>
+  <si>
+    <t>No, No</t>
+  </si>
+  <si>
+    <t>What is the lexicographically smallest string that is not present in the string: thequickbrownfoxjumpedoverthelaydog? </t>
+  </si>
+  <si>
+    <t>Does not exist</t>
+  </si>
+  <si>
+    <t>John is finding his daughter whom he left on a grocery line to get something he forgot to buy. When he gets back, he can’t find his daughter. There were 25 people before his daughter when he left her. When he got back, around 30 more went in line. Using binary search, how many mid calculations are needed before he can find his daughter? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you make a palindromic substring when you rearrange every character from the following ranges in this string? 
+toomanyprisonshavebecomeearlycoffins. [11, 14], [31, 33] </t>
+  </si>
+  <si>
+    <t>"Meta" means what in terms of Metaheuristic Algorithms?</t>
+  </si>
+  <si>
+    <t>Most Effective Tactics Available</t>
+  </si>
+  <si>
+    <t>Beyond</t>
+  </si>
+  <si>
+    <t>Self-Referential</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>The overall efficiency of a metaheuristic algorithm is determined by</t>
+  </si>
+  <si>
+    <t>a fine balance between diversification and intensification</t>
+  </si>
+  <si>
+    <t>prioritizing diversification in order to search more efficiently</t>
+  </si>
+  <si>
+    <t>prioritizing intensification to search the best solutions</t>
+  </si>
+  <si>
+    <t>using both less often since the performance would decelerate</t>
+  </si>
+  <si>
+    <t>The two main groups in modelling</t>
+  </si>
+  <si>
+    <t>behavioral and experimental</t>
+  </si>
+  <si>
+    <t>experimental and sociological</t>
+  </si>
+  <si>
+    <t>phenomonological and behavioral</t>
+  </si>
+  <si>
+    <t>sociological and phenomonological</t>
+  </si>
+  <si>
+    <t>Usually applied to perform supervised learning tasks, which involve iterative training methods to adjust the connection weights</t>
+  </si>
+  <si>
+    <t>Multilayer Perceptron Network</t>
+  </si>
+  <si>
+    <t>Genetic Programming</t>
+  </si>
+  <si>
+    <t>Radial Basis Function</t>
+  </si>
+  <si>
+    <t>Fuzzy Logic</t>
+  </si>
+  <si>
+    <t>This uses a fixed length of character strings to represent solutions to the problems, which are expressed as parse trees afterwards</t>
+  </si>
+  <si>
+    <t>Multiexpression Programming</t>
+  </si>
+  <si>
+    <t>Linear Genetic Programming</t>
+  </si>
+  <si>
+    <t>Gene Expression Programming</t>
+  </si>
+  <si>
+    <t>Capturing the relationships between the inputs and the outputs on the basis of a measured set of data is what type of model?</t>
+  </si>
+  <si>
+    <t>Phenomonological</t>
+  </si>
+  <si>
+    <t>Bat Algorithm</t>
+  </si>
+  <si>
+    <t>Swarm Algorithm</t>
+  </si>
+  <si>
+    <t>Behavioural</t>
+  </si>
+  <si>
+    <t>What is the special ability of Multiexpression programming?</t>
+  </si>
+  <si>
+    <t>Can encode a single solution to a single chromosome</t>
+  </si>
+  <si>
+    <t>Can encode multiple solutions to a multiple chromosomes</t>
+  </si>
+  <si>
+    <t>Can encode multiple solutions to a single chromosome</t>
+  </si>
+  <si>
+    <t>Can encode a single solution to multiple chromosomes</t>
+  </si>
+  <si>
+    <t>A process of mapping an input space onto an output space using membership functions and linguistically specified rules is called what?</t>
+  </si>
+  <si>
+    <t>Artificial Neural Networks</t>
+  </si>
+  <si>
+    <t>Support Vector Machines</t>
+  </si>
+  <si>
+    <t>The first to use the crossover and recombination, mutation and selection in the study of adaptive and artificial systems.</t>
+  </si>
+  <si>
+    <t>Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Harmony Search</t>
+  </si>
+  <si>
+    <t>Differential Evolution</t>
+  </si>
+  <si>
+    <t>A stochastic search algorithm with a self-organizing tendency and does not use the information of derivatives.</t>
+  </si>
+  <si>
+    <t>Constructing the shortest paths by the use of pheromones is typically used in this type of algorithm</t>
+  </si>
+  <si>
+    <t>Particle Swarm</t>
+  </si>
+  <si>
+    <t>Ant Colony</t>
+  </si>
+  <si>
+    <t>Bee Algorithm</t>
+  </si>
+  <si>
+    <t>Cuckoo Search</t>
+  </si>
+  <si>
+    <t>This algorithm is enhanced by Levy flights rather than by simple isotropic random walks.</t>
+  </si>
+  <si>
+    <t>The most favorite metaphor that is used in metaheuristic methods</t>
+  </si>
+  <si>
+    <t>insects</t>
+  </si>
+  <si>
+    <t>natural evolution</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>bats</t>
+  </si>
+  <si>
+    <t>The process of reducing the number of random variables or attributes in a dataset under consideration</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>exploration</t>
+  </si>
+  <si>
+    <t>dimentionality reduction</t>
+  </si>
+  <si>
+    <t>clustering</t>
+  </si>
+  <si>
+    <t>Which of these real-life scenarios can Swarm Intelligence Algorithms can be used</t>
+  </si>
+  <si>
+    <t>social community network</t>
+  </si>
+  <si>
+    <t>hardware servicing</t>
+  </si>
+  <si>
+    <t>internet of things</t>
+  </si>
+  <si>
+    <t>scheduling and routing</t>
+  </si>
+  <si>
+    <t>What is the difference between classification and clustering?</t>
+  </si>
+  <si>
+    <t>the former predicts, the latter groups</t>
+  </si>
+  <si>
+    <t>the former groups, the latter predicts</t>
+  </si>
+  <si>
+    <t>the former explores, the latter exploits</t>
+  </si>
+  <si>
+    <t>the former exploits, the latter explores</t>
+  </si>
+  <si>
+    <t>Swarm Intelligence Algorithms will do one of the following EXCEPT, until terminated</t>
+  </si>
+  <si>
+    <t>reproduce individuals to form a new population</t>
+  </si>
+  <si>
+    <t>evaluate the fitness of each solution</t>
+  </si>
+  <si>
+    <t>remove solutions with better fitness values</t>
+  </si>
+  <si>
+    <t>update suolutions in the archive</t>
+  </si>
+  <si>
+    <t>Evolutionary Algorithms are similar with Swarm Intelligence by</t>
+  </si>
+  <si>
+    <t>are both iterative processes</t>
+  </si>
+  <si>
+    <t>using biological metaphors for MOST of the time</t>
+  </si>
+  <si>
+    <t>both uses an equation to calculate the velocity of a particle</t>
+  </si>
+  <si>
+    <t>both uses collective behavious of animals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="7"/>
@@ -1751,7 +2349,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
@@ -1766,12 +2364,34 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1783,7 +2403,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1791,105 +2411,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1948,14 +2529,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF273239"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>566280</xdr:colOff>
@@ -1970,11 +2567,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1992,7 +2595,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>456840</xdr:colOff>
@@ -2007,11 +2610,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2029,7 +2638,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>443520</xdr:colOff>
@@ -2044,11 +2653,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2069,23 +2684,317 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M55" activeCellId="0" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.24"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2117,8 +3026,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2146,8 +3055,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2175,8 +3084,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2204,8 +3113,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2236,8 +3145,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2268,8 +3177,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2300,8 +3209,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2329,8 +3238,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2358,8 +3267,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2368,16 +3277,16 @@
       <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2390,8 +3299,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2419,8 +3328,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2448,8 +3357,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2477,8 +3386,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2506,8 +3415,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2535,8 +3444,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2564,17 +3473,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2586,21 +3495,21 @@
       <c r="G17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2615,27 +3524,27 @@
       <c r="G18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2644,21 +3553,21 @@
       <c r="G19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2670,24 +3579,24 @@
       <c r="F20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2696,21 +3605,21 @@
       <c r="E21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>90</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2719,7 +3628,7 @@
       <c r="C22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2731,27 +3640,27 @@
       <c r="G22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2760,15 +3669,15 @@
       <c r="G23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2783,30 +3692,30 @@
       <c r="E24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>82</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2818,24 +3727,24 @@
       <c r="G25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2847,21 +3756,21 @@
       <c r="G26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2870,30 +3779,30 @@
       <c r="E27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2902,21 +3811,21 @@
       <c r="G28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2928,24 +3837,24 @@
       <c r="F29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>102</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2957,24 +3866,24 @@
       <c r="F30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2983,412 +3892,412 @@
       <c r="E31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>97</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" t="s">
         <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>109</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>27</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>113</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" t="s">
         <v>51</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>109</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>120</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" t="s">
         <v>27</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:10" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" t="s">
         <v>22</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" t="s">
         <v>51</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" t="s">
         <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3397,30 +4306,30 @@
       <c r="D46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>136</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3442,14 +4351,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3474,26 +4383,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>149</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="6">
         <v>26000</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F49" s="6">
         <v>16000</v>
       </c>
-      <c r="G49" s="6" t="n">
+      <c r="G49" s="6">
         <v>36000</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -3506,14 +4415,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>152</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -3535,14 +4444,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>157</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -3567,14 +4476,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>163</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -3596,26 +4505,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="4">
         <v>7</v>
       </c>
-      <c r="E53" s="4" t="n">
+      <c r="E53" s="4">
         <v>9</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="F53" s="4">
         <v>11</v>
       </c>
-      <c r="G53" s="4" t="n">
+      <c r="G53" s="4">
         <v>12</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -3625,26 +4534,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="4">
         <v>8</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="4">
         <v>6</v>
       </c>
-      <c r="F54" s="4" t="n">
+      <c r="F54" s="4">
         <v>3</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="G54" s="4">
         <v>4</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -3654,8 +4563,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3664,16 +4573,16 @@
       <c r="C55" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="4">
         <v>8</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="4">
         <v>10</v>
       </c>
-      <c r="F55" s="4" t="n">
+      <c r="F55" s="4">
         <v>12</v>
       </c>
-      <c r="G55" s="4" t="n">
+      <c r="G55" s="4">
         <v>14</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -3683,26 +4592,26 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="4">
         <v>3</v>
       </c>
-      <c r="E56" s="4" t="n">
+      <c r="E56" s="4">
         <v>4</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" s="4">
         <v>5</v>
       </c>
-      <c r="G56" s="4" t="n">
+      <c r="G56" s="4">
         <v>6</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -3712,14 +4621,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>172</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -3741,14 +4650,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>177</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -3770,8 +4679,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3802,14 +4711,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>188</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -3831,26 +4740,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="4">
         <v>2</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="4">
         <v>4</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F61" s="4">
         <v>6</v>
       </c>
-      <c r="G61" s="4" t="n">
+      <c r="G61" s="4">
         <v>8</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -3860,8 +4769,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3889,14 +4798,14 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>200</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -3918,8 +4827,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3947,8 +4856,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3976,26 +4885,26 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="4" t="n">
+      <c r="D66" s="4">
         <v>10</v>
       </c>
-      <c r="E66" s="4" t="n">
+      <c r="E66" s="4">
         <v>16</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" s="4">
         <v>24</v>
       </c>
-      <c r="G66" s="4" t="n">
+      <c r="G66" s="4">
         <v>32</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -4005,14 +4914,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>216</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -4034,14 +4943,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>221</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -4063,14 +4972,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>226</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -4090,14 +4999,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>231</v>
       </c>
       <c r="D70" s="12" t="s">
@@ -4122,14 +5031,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>237</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -4154,14 +5063,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>243</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -4183,8 +5092,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4212,14 +5121,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>253</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -4237,12 +5146,12 @@
       <c r="H74" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J74" s="0" t="s">
+      <c r="J74" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4269,18 +5178,18 @@
       <c r="I75" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J75" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>263</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -4305,43 +5214,43 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>270</v>
       </c>
-      <c r="D77" s="4" t="n">
+      <c r="D77" s="4">
         <v>81</v>
       </c>
-      <c r="E77" s="4" t="n">
+      <c r="E77" s="4">
         <v>92</v>
       </c>
-      <c r="F77" s="4" t="n">
+      <c r="F77" s="4">
         <v>352</v>
       </c>
-      <c r="G77" s="4" t="n">
+      <c r="G77" s="4">
         <v>545</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J77" s="0" t="s">
+      <c r="J77" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>271</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4359,18 +5268,18 @@
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="J78" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>277</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4388,47 +5297,47 @@
       <c r="H79" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="0" t="s">
+      <c r="I79" t="s">
         <v>282</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>283</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>112</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>16</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80">
         <v>32</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80">
         <v>56</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="I80" t="s">
         <v>284</v>
       </c>
-      <c r="J80" s="0" t="s">
+      <c r="J80" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4452,76 +5361,76 @@
       <c r="H81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I81" s="0" t="s">
+      <c r="I81" t="s">
         <v>290</v>
       </c>
-      <c r="J81" s="0" t="s">
+      <c r="J81" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>3</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>4</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82">
         <v>5</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82">
         <v>6</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J82" s="0" t="s">
+      <c r="J82" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>292</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>2</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>3</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83">
         <v>4</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83">
         <v>5</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I83" s="0" t="s">
+      <c r="I83" t="s">
         <v>293</v>
       </c>
-      <c r="J83" s="0" t="s">
+      <c r="J83" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4545,15 +5454,15 @@
       <c r="H84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="I84" t="s">
         <v>299</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4577,15 +5486,15 @@
       <c r="H85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I85" s="0" t="s">
+      <c r="I85" t="s">
         <v>305</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4609,21 +5518,21 @@
       <c r="H86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I86" s="0" t="s">
+      <c r="I86" t="s">
         <v>311</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>312</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4641,21 +5550,21 @@
       <c r="H87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I87" s="0" t="s">
+      <c r="I87" t="s">
         <v>317</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>318</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -4673,21 +5582,21 @@
       <c r="H88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I88" s="0" t="s">
+      <c r="I88" t="s">
         <v>323</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>324</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4705,85 +5614,85 @@
       <c r="H89" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I89" s="0" t="s">
+      <c r="I89" t="s">
         <v>329</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>330</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>331</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" t="s">
         <v>332</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="G90" t="s">
         <v>334</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="0" t="s">
+      <c r="I90" t="s">
         <v>335</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="4" t="n">
+      <c r="D91" s="4">
         <v>3</v>
       </c>
-      <c r="E91" s="4" t="n">
+      <c r="E91" s="4">
         <v>4</v>
       </c>
-      <c r="F91" s="4" t="n">
+      <c r="F91" s="4">
         <v>5</v>
       </c>
-      <c r="G91" s="4" t="n">
+      <c r="G91" s="4">
         <v>6</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="0" t="s">
+      <c r="I91" t="s">
         <v>337</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>338</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -4805,14 +5714,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>343</v>
       </c>
       <c r="D93" s="4" t="s">
@@ -4834,14 +5743,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>348</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -4863,14 +5772,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>353</v>
       </c>
       <c r="D95" s="4" t="s">
@@ -4892,14 +5801,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>358</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -4921,14 +5830,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>363</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -4950,14 +5859,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>368</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -4979,14 +5888,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>373</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -5008,14 +5917,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>378</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -5037,14 +5946,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>383</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -5066,14 +5975,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>388</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -5095,14 +6004,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>393</v>
       </c>
       <c r="D103" s="4" t="s">
@@ -5124,14 +6033,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>398</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -5153,14 +6062,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>403</v>
       </c>
       <c r="D105" s="4" t="s">
@@ -5178,21 +6087,21 @@
       <c r="H105" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I105" s="0" t="s">
+      <c r="I105" t="s">
         <v>408</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>409</v>
       </c>
       <c r="D106" s="4" t="s">
@@ -5214,458 +6123,458 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>414</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>415</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" t="s">
         <v>416</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" t="s">
         <v>417</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" t="s">
         <v>418</v>
       </c>
-      <c r="H107" s="0" t="s">
+      <c r="H107" t="s">
         <v>22</v>
       </c>
-      <c r="J107" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="J107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>419</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>420</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" t="s">
         <v>421</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" t="s">
         <v>422</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" t="s">
         <v>423</v>
       </c>
-      <c r="H108" s="0" t="s">
+      <c r="H108" t="s">
         <v>27</v>
       </c>
-      <c r="J108" s="0" t="s">
+      <c r="J108" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>424</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>425</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" t="s">
         <v>426</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" t="s">
         <v>427</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" t="s">
         <v>428</v>
       </c>
-      <c r="H109" s="0" t="s">
+      <c r="H109" t="s">
         <v>51</v>
       </c>
-      <c r="J109" s="0" t="s">
+      <c r="J109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>429</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>430</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" t="s">
         <v>431</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" t="s">
         <v>432</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" t="s">
         <v>433</v>
       </c>
-      <c r="H110" s="0" t="s">
+      <c r="H110" t="s">
         <v>16</v>
       </c>
-      <c r="J110" s="0" t="s">
+      <c r="J110" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>434</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>435</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" t="s">
         <v>436</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" t="s">
         <v>437</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" t="s">
         <v>438</v>
       </c>
-      <c r="H111" s="0" t="s">
+      <c r="H111" t="s">
         <v>16</v>
       </c>
-      <c r="J111" s="0" t="s">
+      <c r="J111" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>439</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>440</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" t="s">
         <v>441</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" t="s">
         <v>421</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" t="s">
         <v>442</v>
       </c>
-      <c r="H112" s="0" t="s">
+      <c r="H112" t="s">
         <v>22</v>
       </c>
-      <c r="J112" s="0" t="s">
+      <c r="J112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>443</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>444</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" t="s">
         <v>445</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" t="s">
         <v>446</v>
       </c>
-      <c r="G113" s="0" t="s">
+      <c r="G113" t="s">
         <v>447</v>
       </c>
-      <c r="H113" s="0" t="s">
+      <c r="H113" t="s">
         <v>27</v>
       </c>
-      <c r="J113" s="0" t="s">
+      <c r="J113" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>448</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>449</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" t="s">
         <v>450</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" t="s">
         <v>451</v>
       </c>
-      <c r="G114" s="0" t="s">
+      <c r="G114" t="s">
         <v>452</v>
       </c>
-      <c r="H114" s="0" t="s">
+      <c r="H114" t="s">
         <v>51</v>
       </c>
-      <c r="J114" s="0" t="s">
+      <c r="J114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>453</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>454</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" t="s">
         <v>455</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" t="s">
         <v>456</v>
       </c>
-      <c r="G115" s="0" t="s">
+      <c r="G115" t="s">
         <v>457</v>
       </c>
-      <c r="H115" s="0" t="s">
+      <c r="H115" t="s">
         <v>22</v>
       </c>
-      <c r="J115" s="0" t="s">
+      <c r="J115" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>458</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>459</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" t="s">
         <v>460</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" t="s">
         <v>461</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" t="s">
         <v>462</v>
       </c>
-      <c r="H116" s="0" t="s">
+      <c r="H116" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="0" t="s">
+      <c r="J116" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>463</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>464</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" t="s">
         <v>465</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" t="s">
         <v>466</v>
       </c>
-      <c r="G117" s="0" t="s">
+      <c r="G117" t="s">
         <v>467</v>
       </c>
-      <c r="H117" s="0" t="s">
+      <c r="H117" t="s">
         <v>51</v>
       </c>
-      <c r="J117" s="0" t="s">
+      <c r="J117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>468</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>469</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" t="s">
         <v>470</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" t="s">
         <v>471</v>
       </c>
-      <c r="G118" s="0" t="s">
+      <c r="G118" t="s">
         <v>472</v>
       </c>
-      <c r="H118" s="0" t="s">
+      <c r="H118" t="s">
         <v>27</v>
       </c>
-      <c r="J118" s="0" t="s">
+      <c r="J118" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>473</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>474</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" t="s">
         <v>475</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" t="s">
         <v>476</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G119" t="s">
         <v>477</v>
       </c>
-      <c r="H119" s="0" t="s">
+      <c r="H119" t="s">
         <v>22</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J119" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="J119" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>479</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" t="s">
         <v>481</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" t="s">
         <v>482</v>
       </c>
-      <c r="G120" s="0" t="s">
+      <c r="G120" t="s">
         <v>483</v>
       </c>
-      <c r="H120" s="0" t="s">
+      <c r="H120" t="s">
         <v>22</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J120" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="J120" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>485</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>486</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" t="s">
         <v>487</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" t="s">
         <v>488</v>
       </c>
-      <c r="G121" s="0" t="s">
+      <c r="G121" t="s">
         <v>489</v>
       </c>
-      <c r="H121" s="0" t="s">
+      <c r="H121" t="s">
         <v>22</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J121" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="J121" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>491</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>492</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -5680,24 +6589,24 @@
       <c r="G122" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H122" s="0" t="s">
+      <c r="H122" t="s">
         <v>22</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="J122" s="0" t="s">
+      <c r="J122" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>491</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>492</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -5712,24 +6621,24 @@
       <c r="G123" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H123" s="0" t="s">
+      <c r="H123" t="s">
         <v>22</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J123" s="0" t="s">
+      <c r="J123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>491</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>492</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -5744,24 +6653,24 @@
       <c r="G124" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H124" s="0" t="s">
+      <c r="H124" t="s">
         <v>27</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="J124" s="0" t="s">
+      <c r="J124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>491</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>492</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -5776,24 +6685,24 @@
       <c r="G125" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H125" s="0" t="s">
+      <c r="H125" t="s">
         <v>51</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="J125" s="0" t="s">
+      <c r="J125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>491</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>492</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -5808,24 +6717,24 @@
       <c r="G126" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H126" s="0" t="s">
+      <c r="H126" t="s">
         <v>16</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J126" s="0" t="s">
+      <c r="J126" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>491</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>492</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -5840,24 +6749,24 @@
       <c r="G127" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="H127" s="0" t="s">
+      <c r="H127" t="s">
         <v>27</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="J127" s="0" t="s">
+      <c r="J127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>491</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>505</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -5872,24 +6781,24 @@
       <c r="G128" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H128" s="0" t="s">
+      <c r="H128" t="s">
         <v>22</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="J128" s="0" t="s">
+      <c r="J128" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>491</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>505</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -5904,24 +6813,24 @@
       <c r="G129" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H129" s="0" t="s">
+      <c r="H129" t="s">
         <v>22</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="J129" s="0" t="s">
+      <c r="J129" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>491</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>505</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -5936,24 +6845,24 @@
       <c r="G130" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H130" s="0" t="s">
+      <c r="H130" t="s">
         <v>27</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="J130" s="0" t="s">
+      <c r="J130" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>491</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>505</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -5968,24 +6877,24 @@
       <c r="G131" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H131" s="0" t="s">
+      <c r="H131" t="s">
         <v>51</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J131" s="0" t="s">
+      <c r="J131" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>491</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>505</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -6000,24 +6909,24 @@
       <c r="G132" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H132" s="0" t="s">
+      <c r="H132" t="s">
         <v>16</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="J132" s="0" t="s">
+      <c r="J132" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>491</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>505</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -6032,26 +6941,1438 @@
       <c r="G133" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="H133" s="0" t="s">
+      <c r="H133" t="s">
         <v>27</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="J133" s="0" t="s">
+      <c r="J133" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="H135" t="s">
+        <v>27</v>
+      </c>
+      <c r="J135" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H136" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H137" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="H138" t="s">
+        <v>51</v>
+      </c>
+      <c r="J138" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="H139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" t="s">
+        <v>544</v>
+      </c>
+      <c r="J139" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="H140" t="s">
+        <v>22</v>
+      </c>
+      <c r="J140" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="H141" t="s">
+        <v>51</v>
+      </c>
+      <c r="J141" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>560</v>
+      </c>
+      <c r="J142" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="H143" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143" t="s">
+        <v>562</v>
+      </c>
+      <c r="J143" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="H145" t="s">
+        <v>27</v>
+      </c>
+      <c r="J145" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="D146" t="s">
+        <v>574</v>
+      </c>
+      <c r="E146" t="s">
+        <v>575</v>
+      </c>
+      <c r="F146" t="s">
+        <v>576</v>
+      </c>
+      <c r="G146" t="s">
+        <v>577</v>
+      </c>
+      <c r="H146" t="s">
+        <v>22</v>
+      </c>
+      <c r="I146" t="s">
+        <v>578</v>
+      </c>
+      <c r="J146" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>579</v>
+      </c>
+      <c r="D147" s="20">
+        <v>15</v>
+      </c>
+      <c r="E147" s="20">
+        <v>8</v>
+      </c>
+      <c r="F147" s="20">
+        <v>16</v>
+      </c>
+      <c r="G147" s="20">
+        <v>32</v>
+      </c>
+      <c r="H147" t="s">
+        <v>51</v>
+      </c>
+      <c r="J147" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" t="s">
+        <v>581</v>
+      </c>
+      <c r="J148" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>582</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="D149" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" t="s">
+        <v>131</v>
+      </c>
+      <c r="F149" t="s">
+        <v>584</v>
+      </c>
+      <c r="G149" t="s">
+        <v>585</v>
+      </c>
+      <c r="H149" t="s">
+        <v>51</v>
+      </c>
+      <c r="J149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>582</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="H150" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>582</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="H151" t="s">
+        <v>27</v>
+      </c>
+      <c r="J151" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>582</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D152">
+        <v>23</v>
+      </c>
+      <c r="E152">
+        <v>17</v>
+      </c>
+      <c r="F152">
+        <v>40</v>
+      </c>
+      <c r="G152">
+        <v>53</v>
+      </c>
+      <c r="H152" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" t="s">
+        <v>478</v>
+      </c>
+      <c r="J152" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>582</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="s">
+        <v>484</v>
+      </c>
+      <c r="J153" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>582</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D154">
+        <v>2.94</v>
+      </c>
+      <c r="E154">
+        <v>3.76</v>
+      </c>
+      <c r="F154">
+        <v>3.16</v>
+      </c>
+      <c r="G154">
+        <v>3.64</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>582</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="D155">
+        <v>3.47</v>
+      </c>
+      <c r="E155">
+        <v>3.52</v>
+      </c>
+      <c r="F155">
+        <v>2.34</v>
+      </c>
+      <c r="G155">
+        <v>3.98</v>
+      </c>
+      <c r="H155" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>582</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156">
+        <v>7</v>
+      </c>
+      <c r="H156" t="s">
+        <v>27</v>
+      </c>
+      <c r="J156" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>582</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="D157" t="s">
+        <v>602</v>
+      </c>
+      <c r="E157" t="s">
+        <v>603</v>
+      </c>
+      <c r="F157" t="s">
+        <v>604</v>
+      </c>
+      <c r="G157" t="s">
+        <v>605</v>
+      </c>
+      <c r="H157" t="s">
+        <v>51</v>
+      </c>
+      <c r="J157" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>582</v>
+      </c>
+      <c r="C158" t="s">
+        <v>606</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="E158" t="s">
+        <v>129</v>
+      </c>
+      <c r="F158" t="s">
+        <v>128</v>
+      </c>
+      <c r="G158" t="s">
+        <v>130</v>
+      </c>
+      <c r="H158" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" t="s">
+        <v>490</v>
+      </c>
+      <c r="J158" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>582</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159">
+        <v>6</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" t="s">
+        <v>609</v>
+      </c>
+      <c r="J159" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>582</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="D160" t="s">
+        <v>572</v>
+      </c>
+      <c r="E160" t="s">
+        <v>611</v>
+      </c>
+      <c r="F160" t="s">
+        <v>612</v>
+      </c>
+      <c r="G160" t="s">
+        <v>613</v>
+      </c>
+      <c r="H160" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>582</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="D161" t="s">
+        <v>615</v>
+      </c>
+      <c r="E161">
+        <v>122</v>
+      </c>
+      <c r="F161">
+        <v>115</v>
+      </c>
+      <c r="G161">
+        <v>97</v>
+      </c>
+      <c r="H161" t="s">
+        <v>51</v>
+      </c>
+      <c r="J161" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>582</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162">
+        <v>6</v>
+      </c>
+      <c r="H162" t="s">
+        <v>51</v>
+      </c>
+      <c r="J162" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>582</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="D163" t="s">
+        <v>572</v>
+      </c>
+      <c r="E163" t="s">
+        <v>611</v>
+      </c>
+      <c r="F163" t="s">
+        <v>612</v>
+      </c>
+      <c r="G163" t="s">
+        <v>613</v>
+      </c>
+      <c r="H163" t="s">
+        <v>51</v>
+      </c>
+      <c r="J163" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>491</v>
+      </c>
+      <c r="C164" t="s">
+        <v>618</v>
+      </c>
+      <c r="D164" t="s">
+        <v>619</v>
+      </c>
+      <c r="E164" t="s">
+        <v>620</v>
+      </c>
+      <c r="F164" t="s">
+        <v>621</v>
+      </c>
+      <c r="G164" t="s">
+        <v>622</v>
+      </c>
+      <c r="H164" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>491</v>
+      </c>
+      <c r="C165" t="s">
+        <v>623</v>
+      </c>
+      <c r="D165" t="s">
+        <v>624</v>
+      </c>
+      <c r="E165" t="s">
+        <v>625</v>
+      </c>
+      <c r="F165" t="s">
+        <v>626</v>
+      </c>
+      <c r="G165" t="s">
+        <v>627</v>
+      </c>
+      <c r="H165" t="s">
+        <v>22</v>
+      </c>
+      <c r="J165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>491</v>
+      </c>
+      <c r="C166" t="s">
+        <v>628</v>
+      </c>
+      <c r="D166" t="s">
+        <v>629</v>
+      </c>
+      <c r="E166" t="s">
+        <v>630</v>
+      </c>
+      <c r="F166" t="s">
+        <v>631</v>
+      </c>
+      <c r="G166" t="s">
+        <v>632</v>
+      </c>
+      <c r="H166" t="s">
+        <v>51</v>
+      </c>
+      <c r="J166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>491</v>
+      </c>
+      <c r="C167" t="s">
+        <v>633</v>
+      </c>
+      <c r="D167" t="s">
+        <v>634</v>
+      </c>
+      <c r="E167" t="s">
+        <v>635</v>
+      </c>
+      <c r="F167" t="s">
+        <v>636</v>
+      </c>
+      <c r="G167" t="s">
+        <v>637</v>
+      </c>
+      <c r="H167" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" t="s">
+        <v>638</v>
+      </c>
+      <c r="D168" t="s">
+        <v>639</v>
+      </c>
+      <c r="E168" t="s">
+        <v>640</v>
+      </c>
+      <c r="F168" t="s">
+        <v>637</v>
+      </c>
+      <c r="G168" t="s">
+        <v>641</v>
+      </c>
+      <c r="H168" t="s">
+        <v>27</v>
+      </c>
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>491</v>
+      </c>
+      <c r="C169" t="s">
+        <v>642</v>
+      </c>
+      <c r="D169" t="s">
+        <v>643</v>
+      </c>
+      <c r="E169" t="s">
+        <v>644</v>
+      </c>
+      <c r="F169" t="s">
+        <v>645</v>
+      </c>
+      <c r="G169" t="s">
+        <v>646</v>
+      </c>
+      <c r="H169" t="s">
+        <v>27</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>491</v>
+      </c>
+      <c r="C170" t="s">
+        <v>647</v>
+      </c>
+      <c r="D170" t="s">
+        <v>648</v>
+      </c>
+      <c r="E170" t="s">
+        <v>649</v>
+      </c>
+      <c r="F170" t="s">
+        <v>650</v>
+      </c>
+      <c r="G170" t="s">
+        <v>651</v>
+      </c>
+      <c r="H170" t="s">
+        <v>51</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>491</v>
+      </c>
+      <c r="C171" t="s">
+        <v>652</v>
+      </c>
+      <c r="D171" t="s">
+        <v>653</v>
+      </c>
+      <c r="E171" t="s">
+        <v>635</v>
+      </c>
+      <c r="F171" t="s">
+        <v>637</v>
+      </c>
+      <c r="G171" t="s">
+        <v>654</v>
+      </c>
+      <c r="H171" t="s">
+        <v>51</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>491</v>
+      </c>
+      <c r="C172" t="s">
+        <v>655</v>
+      </c>
+      <c r="D172" t="s">
+        <v>635</v>
+      </c>
+      <c r="E172" t="s">
+        <v>656</v>
+      </c>
+      <c r="F172" t="s">
+        <v>657</v>
+      </c>
+      <c r="G172" t="s">
+        <v>658</v>
+      </c>
+      <c r="H172" t="s">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>491</v>
+      </c>
+      <c r="C173" t="s">
+        <v>659</v>
+      </c>
+      <c r="D173" t="s">
+        <v>658</v>
+      </c>
+      <c r="E173" t="s">
+        <v>657</v>
+      </c>
+      <c r="F173" t="s">
+        <v>635</v>
+      </c>
+      <c r="G173" t="s">
+        <v>656</v>
+      </c>
+      <c r="H173" t="s">
+        <v>22</v>
+      </c>
+      <c r="J173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>491</v>
+      </c>
+      <c r="C174" t="s">
+        <v>660</v>
+      </c>
+      <c r="D174" t="s">
+        <v>661</v>
+      </c>
+      <c r="E174" t="s">
+        <v>662</v>
+      </c>
+      <c r="F174" t="s">
+        <v>663</v>
+      </c>
+      <c r="G174" t="s">
+        <v>664</v>
+      </c>
+      <c r="H174" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>491</v>
+      </c>
+      <c r="C175" t="s">
+        <v>665</v>
+      </c>
+      <c r="D175" t="s">
+        <v>661</v>
+      </c>
+      <c r="E175" t="s">
+        <v>662</v>
+      </c>
+      <c r="F175" t="s">
+        <v>663</v>
+      </c>
+      <c r="G175" t="s">
+        <v>664</v>
+      </c>
+      <c r="H175" t="s">
+        <v>27</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>491</v>
+      </c>
+      <c r="C176" t="s">
+        <v>666</v>
+      </c>
+      <c r="D176" t="s">
+        <v>667</v>
+      </c>
+      <c r="E176" t="s">
+        <v>668</v>
+      </c>
+      <c r="F176" t="s">
+        <v>669</v>
+      </c>
+      <c r="G176" t="s">
+        <v>670</v>
+      </c>
+      <c r="H176" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>491</v>
+      </c>
+      <c r="C177" t="s">
+        <v>671</v>
+      </c>
+      <c r="D177" t="s">
+        <v>672</v>
+      </c>
+      <c r="E177" t="s">
+        <v>673</v>
+      </c>
+      <c r="F177" t="s">
+        <v>674</v>
+      </c>
+      <c r="G177" t="s">
+        <v>675</v>
+      </c>
+      <c r="H177" t="s">
+        <v>51</v>
+      </c>
+      <c r="J177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>491</v>
+      </c>
+      <c r="C178" t="s">
+        <v>676</v>
+      </c>
+      <c r="D178" t="s">
+        <v>677</v>
+      </c>
+      <c r="E178" t="s">
+        <v>678</v>
+      </c>
+      <c r="F178" t="s">
+        <v>679</v>
+      </c>
+      <c r="G178" t="s">
+        <v>680</v>
+      </c>
+      <c r="H178" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>491</v>
+      </c>
+      <c r="C179" t="s">
+        <v>681</v>
+      </c>
+      <c r="D179" t="s">
+        <v>682</v>
+      </c>
+      <c r="E179" t="s">
+        <v>683</v>
+      </c>
+      <c r="F179" t="s">
+        <v>684</v>
+      </c>
+      <c r="G179" t="s">
+        <v>685</v>
+      </c>
+      <c r="H179" t="s">
+        <v>22</v>
+      </c>
+      <c r="J179" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>491</v>
+      </c>
+      <c r="C180" t="s">
+        <v>686</v>
+      </c>
+      <c r="D180" t="s">
+        <v>687</v>
+      </c>
+      <c r="E180" t="s">
+        <v>688</v>
+      </c>
+      <c r="F180" t="s">
+        <v>689</v>
+      </c>
+      <c r="G180" t="s">
+        <v>690</v>
+      </c>
+      <c r="H180" t="s">
+        <v>51</v>
+      </c>
+      <c r="J180" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>491</v>
+      </c>
+      <c r="C181" t="s">
+        <v>691</v>
+      </c>
+      <c r="D181" t="s">
+        <v>692</v>
+      </c>
+      <c r="E181" t="s">
+        <v>693</v>
+      </c>
+      <c r="F181" t="s">
+        <v>694</v>
+      </c>
+      <c r="G181" t="s">
+        <v>695</v>
+      </c>
+      <c r="H181" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>